--- a/ПКМ/resdata PKM Temp=-10, Volume=10x15x8.xlsx
+++ b/ПКМ/resdata PKM Temp=-10, Volume=10x15x8.xlsx
@@ -527,7 +527,7 @@
         <v>946.855745932765</v>
       </c>
       <c r="E3" t="n">
-        <v>441.6036481645713</v>
+        <v>441.5837788476586</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>13.64216455434553</v>
+        <v>13.64206695973949</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>540.7932938618982</v>
+        <v>540.793620553933</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>964.3642649807098</v>
+        <v>964.3649076719139</v>
       </c>
       <c r="E5" t="n">
-        <v>455.2458127189168</v>
+        <v>455.2258458073981</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7781538269990909</v>
+        <v>0.7781537482758017</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1202119672052522</v>
+        <v>0.1202118392615057</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03195356808143836</v>
+        <v>0.0319536360717523</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06311493088437108</v>
+        <v>0.0631150671509154</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006565706829847271</v>
+        <v>0.006565709240024721</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465.3068088255821</v>
+        <v>465.3097975762322</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>877.9504842242411</v>
+        <v>877.954133708746</v>
       </c>
       <c r="E6" t="n">
-        <v>455.2458127189168</v>
+        <v>455.2258458073981</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7781538269990909</v>
+        <v>0.7781537482758017</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1202119672052522</v>
+        <v>0.1202118392615057</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03195356808143836</v>
+        <v>0.0319536360717523</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06311493088437108</v>
+        <v>0.0631150671509154</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006565706829847271</v>
+        <v>0.006565709240024721</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.7549284767005</v>
+        <v>290.7544580957075</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>683.9119304756431</v>
+        <v>683.911659729241</v>
       </c>
       <c r="E7" t="n">
-        <v>455.2458127189168</v>
+        <v>455.2258458073981</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7781538269990909</v>
+        <v>0.7781537482758017</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1202119672052522</v>
+        <v>0.1202118392615057</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03195356808143836</v>
+        <v>0.0319536360717523</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06311493088437108</v>
+        <v>0.0631150671509154</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006565706829847271</v>
+        <v>0.006565709240024721</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>225.0314726367249</v>
+        <v>225.0953501069739</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>612.8450462582582</v>
+        <v>612.9138775813861</v>
       </c>
       <c r="E8" t="n">
-        <v>455.2458127189168</v>
+        <v>455.2258458073981</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7781538269990909</v>
+        <v>0.7781537482758017</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1202119672052522</v>
+        <v>0.1202118392615057</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03195356808143836</v>
+        <v>0.0319536360717523</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06311493088437108</v>
+        <v>0.0631150671509154</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006565706829847271</v>
+        <v>0.006565709240024721</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>224.1109897619421</v>
+        <v>224.174920087869</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>611.8566740925611</v>
+        <v>611.9255494186654</v>
       </c>
       <c r="E9" t="n">
-        <v>455.2458127189168</v>
+        <v>455.2258458073981</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7781538269990909</v>
+        <v>0.7781537482758017</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1202119672052522</v>
+        <v>0.1202118392615057</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03195356808143836</v>
+        <v>0.0319536360717523</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06311493088437108</v>
+        <v>0.0631150671509154</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006565706829847271</v>
+        <v>0.006565709240024721</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.5337467951904</v>
+        <v>165.6309424630271</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>549.3143249398366</v>
+        <v>549.417786793732</v>
       </c>
       <c r="E10" t="n">
-        <v>455.2458127189168</v>
+        <v>455.2258458073981</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7781538269990909</v>
+        <v>0.7781537482758017</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1202119672052522</v>
+        <v>0.1202118392615057</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03195356808143836</v>
+        <v>0.0319536360717523</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06311493088437108</v>
+        <v>0.0631150671509154</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006565706829847271</v>
+        <v>0.006565709240024721</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101.4961819604906</v>
+        <v>101.5583625485414</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>481.6355164442134</v>
+        <v>481.7011653515379</v>
       </c>
       <c r="E11" t="n">
-        <v>455.2458127189168</v>
+        <v>455.2258458073981</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7781538269990909</v>
+        <v>0.7781537482758017</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1202119672052522</v>
+        <v>0.1202118392615057</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03195356808143836</v>
+        <v>0.0319536360717523</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06311493088437108</v>
+        <v>0.0631150671509154</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006565706829847271</v>
+        <v>0.006565709240024721</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>12.9315311499931</v>
+        <v>12.93143863918346</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7106334043524406</v>
+        <v>0.7106283205560342</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97398778516584</v>
+        <v>11.97395676317457</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97398778516584</v>
+        <v>11.97395676317457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97398778516584</v>
+        <v>11.97395676317457</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97398778516584</v>
+        <v>11.97395676317457</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762724316454458</v>
+        <v>4.762711977274328</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944167</v>
+        <v>0.05094889585944172</v>
       </c>
       <c r="K6" t="n">
         <v>0.0976743545348964</v>
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6369594681013367</v>
+        <v>0.6368732937031525</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6721152678131198</v>
+        <v>0.6720482450243225</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9476937939139957</v>
+        <v>0.9476600800885999</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.97060045218941</v>
+        <v>52.96686810167047</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.25670741110977</v>
+        <v>33.25493749123527</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8492926190949368</v>
+        <v>0.8492926972798038</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.34875006453712</v>
+        <v>12.34824589762638</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8175861625167797</v>
+        <v>0.8175875763131449</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.983912942791759</v>
+        <v>4.983374305778804</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8085251287040017</v>
+        <v>0.8085291685461869</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.381230033750754</v>
+        <v>2.380310407030018</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.4741943800404273</v>
+        <v>0.4741147130126474</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1511638836236507</v>
+        <v>0.1511379958158588</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1682255288447784</v>
+        <v>0.1681970400232207</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8985787392776129</v>
+        <v>0.8985770248691247</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41431.94945355996</v>
+        <v>41431.04075546285</v>
       </c>
       <c r="C2" t="n">
-        <v>41850.45399349491</v>
+        <v>41849.53611662915</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91120.53772629482</v>
+        <v>91123.98773661825</v>
       </c>
       <c r="C3" t="n">
-        <v>92040.94719827759</v>
+        <v>92044.43205719015</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39132.77356962485</v>
+        <v>39129.56185085111</v>
       </c>
       <c r="C4" t="n">
-        <v>39528.05411073217</v>
+        <v>39524.80995035465</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>512.8287120722026</v>
+        <v>512.8297296663868</v>
       </c>
       <c r="C5" t="n">
-        <v>518.008800072932</v>
+        <v>518.0098279458452</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32894.25809868069</v>
+        <v>32894.90826069228</v>
       </c>
       <c r="C6" t="n">
-        <v>33226.5233320007</v>
+        <v>33227.18006130533</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37169.69434091556</v>
+        <v>37169.84595424107</v>
       </c>
       <c r="C7" t="n">
-        <v>37545.1457989046</v>
+        <v>37545.29894367785</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>43.63352953300232</v>
+        <v>43.63251213462355</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80.84722079037846</v>
+        <v>80.84805557414643</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.089801087495715</v>
+        <v>7.089983702106528</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>515.7340386775954</v>
+        <v>515.7391123570252</v>
       </c>
       <c r="C3" t="n">
-        <v>6.314376550105241</v>
+        <v>6.314514940836464</v>
       </c>
       <c r="D3" t="n">
-        <v>3456.9999348111</v>
+        <v>3457.011543147286</v>
       </c>
       <c r="E3" t="n">
-        <v>57.23557566826386</v>
+        <v>57.23222838074906</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>282.7780252620574</v>
+        <v>282.7777499667993</v>
       </c>
       <c r="C4" t="n">
-        <v>6.68980323401728</v>
+        <v>6.689775725648646</v>
       </c>
       <c r="D4" t="n">
-        <v>2776.564709565875</v>
+        <v>2776.565049870018</v>
       </c>
       <c r="E4" t="n">
-        <v>57.23557566826386</v>
+        <v>57.23222838074906</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>282.2450313536093</v>
+        <v>282.2339584804037</v>
       </c>
       <c r="C5" t="n">
-        <v>6.68980323401728</v>
+        <v>6.689775725648646</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.640269542009</v>
+        <v>1248.581275981424</v>
       </c>
       <c r="E5" t="n">
-        <v>57.23557566826386</v>
+        <v>57.23222838074906</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162.3167170023354</v>
+        <v>162.4244425174845</v>
       </c>
       <c r="C6" t="n">
-        <v>6.68980323401728</v>
+        <v>6.689775725648646</v>
       </c>
       <c r="D6" t="n">
-        <v>689.0434380918335</v>
+        <v>689.5089104636146</v>
       </c>
       <c r="E6" t="n">
-        <v>57.23557566826386</v>
+        <v>57.23222838074906</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>155.183770769448</v>
+        <v>155.2882783077181</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5461124139702269</v>
+        <v>0.5476025324262251</v>
       </c>
       <c r="D7" t="n">
-        <v>654.5851438284054</v>
+        <v>655.0376546551274</v>
       </c>
       <c r="E7" t="n">
-        <v>57.23557566826386</v>
+        <v>57.23222838074906</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>168.2789127459766</v>
+        <v>168.3874739263513</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5409390009144723</v>
+        <v>0.5414770171807272</v>
       </c>
       <c r="D8" t="n">
-        <v>2783.410653175696</v>
+        <v>2783.548791749504</v>
       </c>
       <c r="E8" t="n">
-        <v>14.18963469559837</v>
+        <v>14.18047246499257</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>155.1837706525246</v>
+        <v>155.2882781905926</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5461124139702269</v>
+        <v>0.5476025324262251</v>
       </c>
       <c r="D9" t="n">
-        <v>2752.02125476321</v>
+        <v>2752.141393692224</v>
       </c>
       <c r="E9" t="n">
-        <v>14.18963469559837</v>
+        <v>14.18047246499257</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>155.183770769448</v>
+        <v>155.2882783077181</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5461124139702269</v>
+        <v>0.5476025324262251</v>
       </c>
       <c r="D10" t="n">
-        <v>676.6433956738757</v>
+        <v>676.9778656972438</v>
       </c>
       <c r="E10" t="n">
-        <v>71.42521036386222</v>
+        <v>71.41270084574163</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>155.183770769448</v>
+        <v>155.2882783077181</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5461124139702269</v>
+        <v>0.5476025324262251</v>
       </c>
       <c r="D11" t="n">
-        <v>676.6433956738757</v>
+        <v>676.9778656972438</v>
       </c>
       <c r="E11" t="n">
-        <v>71.76674833862086</v>
+        <v>71.74744538242084</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5461124139702269</v>
+        <v>0.5476025324262251</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6222016046684</v>
+        <v>251.6234528567544</v>
       </c>
       <c r="E12" t="n">
-        <v>71.76267706679118</v>
+        <v>71.74781362026273</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59.48991763249342</v>
+        <v>59.49359753897983</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>249.6144548159122</v>
+        <v>249.6298493811599</v>
       </c>
       <c r="E13" t="n">
-        <v>71.42015437729789</v>
+        <v>71.41398902381958</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>58.81067896724176</v>
+        <v>58.81502042282477</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>246.773019187999</v>
+        <v>246.7911800247199</v>
       </c>
       <c r="E14" t="n">
-        <v>59.61892223984363</v>
+        <v>59.61280047037501</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>96.17051755857784</v>
+        <v>96.17587728343403</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08831957948496129</v>
+        <v>0.08833687814745436</v>
       </c>
       <c r="D15" t="n">
-        <v>403.0206294986749</v>
+        <v>403.043214816675</v>
       </c>
       <c r="E15" t="n">
-        <v>55.17818585631576</v>
+        <v>55.17627732229383</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.76505312283626</v>
+        <v>61.76624920507106</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0883191688868068</v>
+        <v>0.08833890581056832</v>
       </c>
       <c r="D16" t="n">
-        <v>258.625180782455</v>
+        <v>258.6302038125289</v>
       </c>
       <c r="E16" t="n">
-        <v>55.17713832145004</v>
+        <v>55.17680485399497</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>581.7615139522155</v>
+        <v>581.7619459340339</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>73.28502946332107</v>
+        <v>73.28508388046542</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>78.60561695847548</v>
+        <v>78.60913567090395</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>329.1217182051369</v>
+        <v>329.1364510540749</v>
       </c>
       <c r="E19" t="n">
-        <v>73.28502946332107</v>
+        <v>73.28508388046542</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>111.0495732260906</v>
+        <v>111.051116153374</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1485127687803527</v>
+        <v>0.1485065935676298</v>
       </c>
       <c r="D20" t="n">
-        <v>2691.34176601173</v>
+        <v>2691.386509585664</v>
       </c>
       <c r="E20" t="n">
-        <v>14.10847649993474</v>
+        <v>14.10261551481701</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>109.5210447580786</v>
+        <v>109.5198104514033</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1410871303413351</v>
+        <v>0.1410812638892483</v>
       </c>
       <c r="D21" t="n">
-        <v>459.3884991906233</v>
+        <v>459.3832766783394</v>
       </c>
       <c r="E21" t="n">
-        <v>14.10847649993474</v>
+        <v>14.10261551481701</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.58335161347088</v>
+        <v>93.58839142996945</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>391.8334932056026</v>
+        <v>391.8545949172821</v>
       </c>
       <c r="E22" t="n">
-        <v>581.7615139522155</v>
+        <v>581.7619459340339</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>445.41999706347</v>
       </c>
       <c r="E23" t="n">
-        <v>581.7615139522155</v>
+        <v>581.7619459340339</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>56.13816005527215</v>
+        <v>56.13860331069179</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>581.7615139522155</v>
+        <v>581.7619459340339</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.58038585768946</v>
+        <v>97.58579258098558</v>
       </c>
       <c r="C25" t="n">
-        <v>0.09296797840522242</v>
+        <v>0.09298618752363617</v>
       </c>
       <c r="D25" t="n">
-        <v>2626.961519592392</v>
+        <v>2627.024457187365</v>
       </c>
       <c r="E25" t="n">
-        <v>41.06960295738401</v>
+        <v>41.07432279505225</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>512.835242088914</v>
+        <v>512.8416009812838</v>
       </c>
       <c r="C26" t="n">
-        <v>5.689865866112834</v>
+        <v>5.690172361496999</v>
       </c>
       <c r="D26" t="n">
-        <v>3456.9999348111</v>
+        <v>3457.011543147286</v>
       </c>
       <c r="E26" t="n">
-        <v>45.43007584272677</v>
+        <v>45.43238947342654</v>
       </c>
       <c r="F26" t="n">
-        <v>6.949500219330634</v>
+        <v>6.949491163132095</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>202.07973015789</v>
+        <v>202.0727804136719</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3991096368453431</v>
+        <v>0.3990806068605515</v>
       </c>
       <c r="D27" t="n">
-        <v>2865.32911488073</v>
+        <v>2865.315999078755</v>
       </c>
       <c r="E27" t="n">
-        <v>45.43007584272677</v>
+        <v>45.43238947342654</v>
       </c>
       <c r="F27" t="n">
-        <v>7.182590296227886</v>
+        <v>7.182595570440789</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>165.5853763708859</v>
+        <v>165.6438438310911</v>
       </c>
       <c r="C28" t="n">
-        <v>0.456410531710892</v>
+        <v>0.4563075273741601</v>
       </c>
       <c r="D28" t="n">
-        <v>2783.410653175696</v>
+        <v>2783.548791749504</v>
       </c>
       <c r="E28" t="n">
-        <v>14.18963469559837</v>
+        <v>14.18047246499257</v>
       </c>
       <c r="F28" t="n">
-        <v>6.942882190333752</v>
+        <v>6.943297617264831</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>192.7991465766071</v>
+        <v>192.814157879732</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3991096368453431</v>
+        <v>0.3990806068605515</v>
       </c>
       <c r="D29" t="n">
-        <v>2845.83232370338</v>
+        <v>2845.865538316285</v>
       </c>
       <c r="E29" t="n">
-        <v>59.61971053832514</v>
+        <v>59.61286193841911</v>
       </c>
       <c r="F29" t="n">
-        <v>7.141157872653303</v>
+        <v>7.14126196603389</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>111.0486448248179</v>
+        <v>111.050847695812</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1485029908403513</v>
+        <v>0.148513911591869</v>
       </c>
       <c r="D30" t="n">
-        <v>2691.337859091563</v>
+        <v>2691.385379754161</v>
       </c>
       <c r="E30" t="n">
-        <v>59.61971053832514</v>
+        <v>59.61286193841911</v>
       </c>
       <c r="F30" t="n">
-        <v>7.222915812592765</v>
+        <v>7.223006257442197</v>
       </c>
       <c r="G30" t="n">
-        <v>99.94103383310534</v>
+        <v>99.94301808994564</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.58037831139524</v>
+        <v>97.58523861049252</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09296795299236697</v>
+        <v>0.09298432168936645</v>
       </c>
       <c r="D31" t="n">
-        <v>2626.961992500755</v>
+        <v>2627.021874740854</v>
       </c>
       <c r="E31" t="n">
-        <v>45.51112763939339</v>
+        <v>45.51090741117753</v>
       </c>
       <c r="F31" t="n">
-        <v>7.262584361520894</v>
+        <v>7.262667405184145</v>
       </c>
       <c r="G31" t="n">
-        <v>98.02126692080324</v>
+        <v>98.02356047893667</v>
       </c>
     </row>
     <row r="32">
@@ -2890,19 +2890,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>68.1283938612778</v>
+        <v>68.15879028259303</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008692683139785324</v>
+        <v>0.008682608097860678</v>
       </c>
       <c r="D32" t="n">
-        <v>2626.961992500755</v>
+        <v>2627.021874740854</v>
       </c>
       <c r="E32" t="n">
-        <v>4.441783918393583</v>
+        <v>4.43599561638004</v>
       </c>
       <c r="F32" t="n">
-        <v>8.343945491325904</v>
+        <v>8.3446550964271</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>64.42685686524777</v>
+        <v>64.48461570612778</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002575341523803836</v>
+        <v>0.002574978004106916</v>
       </c>
       <c r="D33" t="n">
-        <v>2621.177444326614</v>
+        <v>2621.286383208531</v>
       </c>
       <c r="E33" t="n">
-        <v>4.441783918393583</v>
+        <v>4.43599561638004</v>
       </c>
       <c r="F33" t="n">
-        <v>8.887670746782106</v>
+        <v>8.888058536438503</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>21.5610788249856</v>
+        <v>21.55877242489191</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002575341523803836</v>
+        <v>0.002574978004106916</v>
       </c>
       <c r="D34" t="n">
-        <v>90.44566762035574</v>
+        <v>90.43601881897213</v>
       </c>
       <c r="E34" t="n">
-        <v>4.441783918393583</v>
+        <v>4.43599561638004</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>23.58153111506482</v>
+        <v>23.57922291508487</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>99.54200306464119</v>
+        <v>99.53235434201787</v>
       </c>
       <c r="E35" t="n">
-        <v>4.441783918393583</v>
+        <v>4.43599561638004</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>500.7315985256654</v>
+        <v>500.736206760108</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3469.855194826088</v>
+        <v>3469.865362288336</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16423314427749</v>
+        <v>10.16420681096586</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>263.9691703046813</v>
       </c>
       <c r="E41" t="n">
-        <v>11.80123213745426</v>
+        <v>11.80118855344457</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>515.7315985256654</v>
+        <v>515.736206760108</v>
       </c>
       <c r="C42" t="n">
-        <v>6.314466796750398</v>
+        <v>6.314487692981217</v>
       </c>
       <c r="D42" t="n">
-        <v>3456.991848721101</v>
+        <v>3457.004199731396</v>
       </c>
       <c r="E42" t="n">
-        <v>11.80123213745426</v>
+        <v>11.80118855344457</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97398778516584</v>
+        <v>11.97395676317457</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97398778516584</v>
+        <v>11.97395676317457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97398778516584</v>
+        <v>11.97395676317457</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97398778516584</v>
+        <v>11.97395676317457</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762724316454458</v>
+        <v>4.762711977274328</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944167</v>
+        <v>0.05094889585944172</v>
       </c>
       <c r="K6" t="n">
         <v>0.0976743545348964</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.972240308713742</v>
+        <v>1.972866785002561</v>
       </c>
       <c r="C2" t="n">
-        <v>2.248316669622013</v>
+        <v>2.249235765030994</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8772075283528966</v>
+        <v>0.8771276073743987</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1951659079321148</v>
+        <v>0.1950656593179574</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>125.525865430322</v>
+        <v>125.5161864126939</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>31.29697315838591</v>
+        <v>31.29615566529101</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.216225234981695</v>
+        <v>6.216204698240183</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.04607747766098</v>
+        <v>39.04583090501613</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26.87965022336505</v>
+        <v>26.88214240781254</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493773191122571</v>
+        <v>0.8493770857478118</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.210915259930015</v>
+        <v>9.209004364588987</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8310364849119858</v>
+        <v>0.8310461192823128</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.929818281310848</v>
+        <v>2.929241517319438</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8140373479584578</v>
+        <v>0.8140345387343727</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02569371305506858</v>
+        <v>0.02544261529517198</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03375104409883518</v>
+        <v>0.03349036015628025</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04040395649274069</v>
+        <v>0.04035130450535294</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04527276211822976</v>
+        <v>0.04521388453907338</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8924561834161082</v>
+        <v>0.8924538317534241</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38946.11673208694</v>
+        <v>38943.05348761246</v>
       </c>
       <c r="C2" t="n">
-        <v>39339.51185059287</v>
+        <v>39336.41766425501</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87451.88670908289</v>
+        <v>87449.81784648138</v>
       </c>
       <c r="C3" t="n">
-        <v>88335.23910008372</v>
+        <v>88333.14933988018</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32029.37244831509</v>
+        <v>31996.82517441956</v>
       </c>
       <c r="C4" t="n">
-        <v>32352.90146294454</v>
+        <v>32320.02542870663</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>445.4527669431235</v>
+        <v>445.4133985717453</v>
       </c>
       <c r="C5" t="n">
-        <v>449.9522898415389</v>
+        <v>449.9125238098438</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28187.42114368848</v>
+        <v>28170.5976193587</v>
       </c>
       <c r="C6" t="n">
-        <v>28472.1425693823</v>
+        <v>28455.14911046334</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30502.38923566355</v>
+        <v>30518.0927085298</v>
       </c>
       <c r="C7" t="n">
-        <v>30810.49417743793</v>
+        <v>30826.35627124222</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.17456561175918</v>
+        <v>31.16231258730535</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.21032536343468</v>
+        <v>91.22158956562643</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.887625084283558</v>
+        <v>7.888710639239369</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34608.83142881309</v>
+        <v>34608.8451090668</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3072.770419335041</v>
+        <v>3072.763330951278</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22647.74044210236</v>
+        <v>22647.57842255646</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7875.793491965137</v>
+        <v>7875.773087501619</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5689.904330989624</v>
+        <v>5689.88958968826</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21121.12930962619</v>
+        <v>21121.07458938589</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37759.59755191599</v>
+        <v>37759.50059752705</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7577318932169622</v>
+        <v>0.7576734662120845</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>461.8268948683894</v>
+        <v>461.8284434265763</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>866.9872405359338</v>
+        <v>866.9889922362479</v>
       </c>
       <c r="E6" t="n">
         <v>523.99195134</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>303.6215171893098</v>
+        <v>303.6170220722598</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>691.3338799014773</v>
+        <v>691.3289810055301</v>
       </c>
       <c r="E7" t="n">
         <v>523.99195134</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.868399477995</v>
+        <v>233.869603375478</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>615.8975034272826</v>
+        <v>615.8987957721916</v>
       </c>
       <c r="E8" t="n">
         <v>523.99195134</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>232.9473894663346</v>
+        <v>232.9485917617374</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>614.9089218302786</v>
+        <v>614.910212213568</v>
       </c>
       <c r="E9" t="n">
         <v>523.99195134</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173.5254601346827</v>
+        <v>173.525495056604</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>551.4985521728233</v>
+        <v>551.498589236662</v>
       </c>
       <c r="E10" t="n">
         <v>523.99195134</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>105.6541920917316</v>
+        <v>105.6539491909142</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>479.8464099922217</v>
+        <v>479.8461547905535</v>
       </c>
       <c r="E11" t="n">
         <v>523.99195134</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>504.4807668727512</v>
+        <v>504.4843610021088</v>
       </c>
       <c r="C3" t="n">
-        <v>7.671680738574132</v>
+        <v>7.671200254923281</v>
       </c>
       <c r="D3" t="n">
-        <v>3414.428004931448</v>
+        <v>3414.443420544635</v>
       </c>
       <c r="E3" t="n">
-        <v>63.12603165184672</v>
+        <v>63.12221428287587</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295.3756277842259</v>
+        <v>295.3707980579838</v>
       </c>
       <c r="C4" t="n">
-        <v>8.042239472530293</v>
+        <v>8.041683856356311</v>
       </c>
       <c r="D4" t="n">
-        <v>2758.053686991282</v>
+        <v>2758.061988199365</v>
       </c>
       <c r="E4" t="n">
-        <v>63.12603165184672</v>
+        <v>63.12221428287587</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>294.5092178609339</v>
+        <v>294.5070661839384</v>
       </c>
       <c r="C5" t="n">
-        <v>8.042239472530293</v>
+        <v>8.041683856356311</v>
       </c>
       <c r="D5" t="n">
-        <v>1314.473652333346</v>
+        <v>1314.462167649612</v>
       </c>
       <c r="E5" t="n">
-        <v>63.12603165184672</v>
+        <v>63.12221428287587</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163.414285284529</v>
+        <v>163.4139990006773</v>
       </c>
       <c r="C6" t="n">
-        <v>8.042239472530293</v>
+        <v>8.041683856356311</v>
       </c>
       <c r="D6" t="n">
-        <v>694.5741862729918</v>
+        <v>694.5726259859156</v>
       </c>
       <c r="E6" t="n">
-        <v>63.12603165184672</v>
+        <v>63.12221428287587</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>162.072403580907</v>
+        <v>162.072218502134</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6515124180614187</v>
+        <v>0.6515093838313647</v>
       </c>
       <c r="D7" t="n">
-        <v>684.4839041590408</v>
+        <v>684.4830988528992</v>
       </c>
       <c r="E7" t="n">
-        <v>63.12603165184672</v>
+        <v>63.12221428287587</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.9845179806179</v>
+        <v>174.9845839448985</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6446431333005465</v>
+        <v>0.6446374396926027</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.424372473089</v>
+        <v>2791.424755722785</v>
       </c>
       <c r="E8" t="n">
-        <v>16.16283055736051</v>
+        <v>16.16319671711486</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>162.0724034501853</v>
+        <v>162.0722183714123</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6515124180614187</v>
+        <v>0.6515093838313647</v>
       </c>
       <c r="D9" t="n">
-        <v>2759.698853695936</v>
+        <v>2759.698654133923</v>
       </c>
       <c r="E9" t="n">
-        <v>16.16283055736051</v>
+        <v>16.16319671711486</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.072403580907</v>
+        <v>162.072218502134</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6515124180614187</v>
+        <v>0.6515093838313647</v>
       </c>
       <c r="D10" t="n">
-        <v>692.6585453225074</v>
+        <v>692.6737883558051</v>
       </c>
       <c r="E10" t="n">
-        <v>79.28886220920722</v>
+        <v>79.28541099999073</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>162.072403580907</v>
+        <v>162.072218502134</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6515124180614187</v>
+        <v>0.6515093838313647</v>
       </c>
       <c r="D11" t="n">
-        <v>692.6585453225074</v>
+        <v>692.6737883558051</v>
       </c>
       <c r="E11" t="n">
-        <v>84.29498196590841</v>
+        <v>84.29241364648254</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6515124180614187</v>
+        <v>0.6515093838313647</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7107048421601</v>
+        <v>251.7107022943142</v>
       </c>
       <c r="E12" t="n">
-        <v>84.29848727350296</v>
+        <v>84.2944130218351</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.32872841133201</v>
+        <v>53.32981098784933</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>223.8473102995876</v>
+        <v>223.8518365773705</v>
       </c>
       <c r="E13" t="n">
-        <v>73.39699336064233</v>
+        <v>73.39498327601653</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>53.32872841133201</v>
+        <v>53.32981098784933</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>223.8473102995876</v>
+        <v>223.8518365773705</v>
       </c>
       <c r="E14" t="n">
-        <v>73.39699336064233</v>
+        <v>73.39498327601653</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>90.94325412149141</v>
+        <v>90.94369140851245</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07273382950800861</v>
+        <v>0.07273503031673988</v>
       </c>
       <c r="D15" t="n">
-        <v>381.0084209559562</v>
+        <v>381.0102611848368</v>
       </c>
       <c r="E15" t="n">
-        <v>56.7797721904173</v>
+        <v>56.7793166909618</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>60.87297588100068</v>
+        <v>60.87326164699101</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07273361183613175</v>
+        <v>0.0727353008452981</v>
       </c>
       <c r="D16" t="n">
-        <v>254.8782693366055</v>
+        <v>254.879466797728</v>
       </c>
       <c r="E16" t="n">
-        <v>56.77813027391162</v>
+        <v>56.77896658398694</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>75.77757192118851</v>
+        <v>75.77816118721179</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>317.2806936340163</v>
+        <v>317.2831608908558</v>
       </c>
       <c r="E19" t="n">
         <v>74.0152414976713</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>112.3111908397917</v>
+        <v>112.3098575050371</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1548633784753075</v>
+        <v>0.1548628487813186</v>
       </c>
       <c r="D20" t="n">
-        <v>2655.899288694874</v>
+        <v>2655.906255802588</v>
       </c>
       <c r="E20" t="n">
-        <v>20.11393314719494</v>
+        <v>20.11339622692104</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>110.7686364012109</v>
+        <v>110.7685341104732</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1471202095515421</v>
+        <v>0.1471197063422527</v>
       </c>
       <c r="D21" t="n">
-        <v>464.6683676701398</v>
+        <v>464.6679346762229</v>
       </c>
       <c r="E21" t="n">
-        <v>20.11393314719494</v>
+        <v>20.11339622692104</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>88.64521482606742</v>
+        <v>88.64562838480339</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>371.1575144767443</v>
+        <v>371.1592460471718</v>
       </c>
       <c r="E22" t="n">
         <v>587.5581856834091</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>55.78190863796338</v>
+        <v>55.78198286834274</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>92.30769496358761</v>
+        <v>92.30813601652869</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0765619257979038</v>
+        <v>0.0765631898070946</v>
       </c>
       <c r="D25" t="n">
-        <v>2562.363698098045</v>
+        <v>2562.377734838191</v>
       </c>
       <c r="E25" t="n">
-        <v>36.665794214225</v>
+        <v>36.66602456542397</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>501.5628070078267</v>
+        <v>501.5673414304459</v>
       </c>
       <c r="C26" t="n">
-        <v>7.064395854171787</v>
+        <v>7.064020552530192</v>
       </c>
       <c r="D26" t="n">
-        <v>3414.428004931448</v>
+        <v>3414.443420544635</v>
       </c>
       <c r="E26" t="n">
-        <v>57.23557566826386</v>
+        <v>57.23222838074906</v>
       </c>
       <c r="F26" t="n">
-        <v>6.799879589667537</v>
+        <v>6.7999226504895</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>188.9615837755796</v>
+        <v>188.9668788430527</v>
       </c>
       <c r="C27" t="n">
-        <v>0.476372203107731</v>
+        <v>0.476355911331577</v>
       </c>
       <c r="D27" t="n">
-        <v>2833.378421297225</v>
+        <v>2833.390778840733</v>
       </c>
       <c r="E27" t="n">
-        <v>57.23557566826386</v>
+        <v>57.23222838074906</v>
       </c>
       <c r="F27" t="n">
-        <v>7.03471585292988</v>
+        <v>7.034757931885139</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172.1233684838194</v>
+        <v>172.1231384961526</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5507175538359529</v>
+        <v>0.5507046306014187</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.424372473089</v>
+        <v>2791.424755722785</v>
       </c>
       <c r="E28" t="n">
-        <v>16.16283055736051</v>
+        <v>16.16319671711486</v>
       </c>
       <c r="F28" t="n">
-        <v>6.877512493720307</v>
+        <v>6.877523759718993</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>184.6942233848907</v>
+        <v>184.6979852141352</v>
       </c>
       <c r="C29" t="n">
-        <v>0.476372203107731</v>
+        <v>0.476355911331577</v>
       </c>
       <c r="D29" t="n">
-        <v>2824.139853088328</v>
+        <v>2824.148989094493</v>
       </c>
       <c r="E29" t="n">
-        <v>73.39840622562437</v>
+        <v>73.39542509786392</v>
       </c>
       <c r="F29" t="n">
-        <v>7.014630809189354</v>
+        <v>7.014666082036951</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>112.3105896662607</v>
+        <v>112.3098613638651</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1548681399339091</v>
+        <v>0.1548644028774015</v>
       </c>
       <c r="D30" t="n">
-        <v>2655.897098244613</v>
+        <v>2655.906269862859</v>
       </c>
       <c r="E30" t="n">
-        <v>73.39840622562437</v>
+        <v>73.39542509786392</v>
       </c>
       <c r="F30" t="n">
-        <v>7.112013245793876</v>
+        <v>7.112047758868193</v>
       </c>
       <c r="G30" t="n">
-        <v>98.26130290526284</v>
+        <v>98.26176625310819</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>92.30745485141591</v>
+        <v>92.30824465362474</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07656123767013159</v>
+        <v>0.07656350115171069</v>
       </c>
       <c r="D31" t="n">
-        <v>2562.362962540625</v>
+        <v>2562.378214062857</v>
       </c>
       <c r="E31" t="n">
-        <v>53.28442824943205</v>
+        <v>53.28213297232609</v>
       </c>
       <c r="F31" t="n">
-        <v>7.172624263508026</v>
+        <v>7.172653124229625</v>
       </c>
       <c r="G31" t="n">
-        <v>95.5672410045886</v>
+        <v>95.56785084072142</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>69.71263284991767</v>
+        <v>69.708701826207</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03081519480954351</v>
+        <v>0.03080994625807005</v>
       </c>
       <c r="D32" t="n">
-        <v>2562.362962540625</v>
+        <v>2562.378214062857</v>
       </c>
       <c r="E32" t="n">
-        <v>16.61886308673071</v>
+        <v>16.6160166920296</v>
       </c>
       <c r="F32" t="n">
-        <v>7.573814299445754</v>
+        <v>7.573934725083174</v>
       </c>
       <c r="G32" t="n">
-        <v>97.29011061296795</v>
+        <v>97.29106366428523</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25.93392588674214</v>
+        <v>25.93301186763267</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003350760949145821</v>
+        <v>0.003350579666663341</v>
       </c>
       <c r="D33" t="n">
-        <v>2419.07818900807</v>
+        <v>2419.124241035025</v>
       </c>
       <c r="E33" t="n">
-        <v>16.61886308673071</v>
+        <v>16.6160166920296</v>
       </c>
       <c r="F33" t="n">
-        <v>8.105035978196931</v>
+        <v>8.105213563572821</v>
       </c>
       <c r="G33" t="n">
-        <v>94.70710004254784</v>
+        <v>94.70906035898668</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25.93392588674214</v>
+        <v>25.93301186763267</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003350760949145821</v>
+        <v>0.003350579666663341</v>
       </c>
       <c r="D34" t="n">
-        <v>108.7345189872061</v>
+        <v>108.7306970929954</v>
       </c>
       <c r="E34" t="n">
-        <v>16.61886308673071</v>
+        <v>16.6160166920296</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>27.95743923716822</v>
+        <v>27.95652465255444</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>117.8304410629074</v>
+        <v>117.8266193358009</v>
       </c>
       <c r="E35" t="n">
-        <v>16.61886308673071</v>
+        <v>16.6160166920296</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>500.7315985256654</v>
+        <v>500.736206760108</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3469.855194826088</v>
+        <v>3469.865362288336</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16423314427749</v>
+        <v>10.16420681096586</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>515.7315985256654</v>
+        <v>515.736206760108</v>
       </c>
       <c r="C42" t="n">
-        <v>6.314466796750398</v>
+        <v>6.314487692981217</v>
       </c>
       <c r="D42" t="n">
-        <v>3456.991848721101</v>
+        <v>3457.004199731396</v>
       </c>
       <c r="E42" t="n">
-        <v>11.80123213745426</v>
+        <v>11.80118855344457</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=-10, Volume=10x15x8.xlsx
+++ b/ПКМ/resdata PKM Temp=-10, Volume=10x15x8.xlsx
@@ -527,7 +527,7 @@
         <v>946.855745932765</v>
       </c>
       <c r="E3" t="n">
-        <v>441.5837788476586</v>
+        <v>441.6182247649745</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>13.64206695973949</v>
+        <v>13.64205439693982</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>540.793620553933</v>
+        <v>540.7929391939846</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>964.3649076719139</v>
+        <v>964.3635672536016</v>
       </c>
       <c r="E5" t="n">
-        <v>455.2258458073981</v>
+        <v>455.2602791619144</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7781537482758017</v>
+        <v>0.7781539124637367</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1202118392615057</v>
+        <v>0.1202121061052787</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0319536360717523</v>
+        <v>0.03195349426887102</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0631150671509154</v>
+        <v>0.06311478294883593</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006565709240024721</v>
+        <v>0.00656570421327772</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465.3097975762322</v>
+        <v>465.3117479717935</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>877.954133708746</v>
+        <v>877.955809163272</v>
       </c>
       <c r="E6" t="n">
-        <v>455.2258458073981</v>
+        <v>455.2602791619144</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7781537482758017</v>
+        <v>0.7781539124637367</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1202118392615057</v>
+        <v>0.1202121061052787</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0319536360717523</v>
+        <v>0.03195349426887102</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0631150671509154</v>
+        <v>0.06311478294883593</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006565709240024721</v>
+        <v>0.00656570421327772</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.7544580957075</v>
+        <v>290.7605449673982</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>683.911659729241</v>
+        <v>683.9177850400893</v>
       </c>
       <c r="E7" t="n">
-        <v>455.2258458073981</v>
+        <v>455.2602791619144</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7781537482758017</v>
+        <v>0.7781539124637367</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1202118392615057</v>
+        <v>0.1202121061052787</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0319536360717523</v>
+        <v>0.03195349426887102</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0631150671509154</v>
+        <v>0.06311478294883593</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006565709240024721</v>
+        <v>0.00656570421327772</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>225.0953501069739</v>
+        <v>225.0961285478548</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>612.9138775813861</v>
+        <v>612.9142216107465</v>
       </c>
       <c r="E8" t="n">
-        <v>455.2258458073981</v>
+        <v>455.2602791619144</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7781537482758017</v>
+        <v>0.7781539124637367</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1202118392615057</v>
+        <v>0.1202121061052787</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0319536360717523</v>
+        <v>0.03195349426887102</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0631150671509154</v>
+        <v>0.06311478294883593</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006565709240024721</v>
+        <v>0.00656570421327772</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>224.174920087869</v>
+        <v>224.1757173088131</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>611.9255494186654</v>
+        <v>611.9259136190104</v>
       </c>
       <c r="E9" t="n">
-        <v>455.2258458073981</v>
+        <v>455.2602791619144</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7781537482758017</v>
+        <v>0.7781539124637367</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1202118392615057</v>
+        <v>0.1202121061052787</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0319536360717523</v>
+        <v>0.03195349426887102</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0631150671509154</v>
+        <v>0.06311478294883593</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006565709240024721</v>
+        <v>0.00656570421327772</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.6309424630271</v>
+        <v>165.6340976470287</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>549.417786793732</v>
+        <v>549.4206562113304</v>
       </c>
       <c r="E10" t="n">
-        <v>455.2258458073981</v>
+        <v>455.2602791619144</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7781537482758017</v>
+        <v>0.7781539124637367</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1202118392615057</v>
+        <v>0.1202121061052787</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0319536360717523</v>
+        <v>0.03195349426887102</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0631150671509154</v>
+        <v>0.06311478294883593</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006565709240024721</v>
+        <v>0.00656570421327772</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101.5583625485414</v>
+        <v>101.555319078741</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>481.7011653515379</v>
+        <v>481.6974918307998</v>
       </c>
       <c r="E11" t="n">
-        <v>455.2258458073981</v>
+        <v>455.2602791619144</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7781537482758017</v>
+        <v>0.7781539124637367</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1202118392615057</v>
+        <v>0.1202121061052787</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0319536360717523</v>
+        <v>0.03195349426887102</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0631150671509154</v>
+        <v>0.06311478294883593</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006565709240024721</v>
+        <v>0.00656570421327772</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>12.93143863918346</v>
+        <v>12.93142673079205</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7106283205560342</v>
+        <v>0.7106276661477794</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97395676317457</v>
+        <v>11.9739345756479</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97395676317457</v>
+        <v>11.9739345756479</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97395676317457</v>
+        <v>11.9739345756479</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97395676317457</v>
+        <v>11.9739345756479</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762711977274328</v>
+        <v>4.762703152054635</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1143,22 +1143,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338336</v>
+        <v>0.1686684666338337</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944172</v>
+        <v>0.0509488958594416</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489642</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173056</v>
+        <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522552</v>
+        <v>0.002008604154522553</v>
       </c>
     </row>
     <row r="7">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6368732937031525</v>
+        <v>0.6369304995680752</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6720482450243225</v>
+        <v>0.6720877252528605</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9476600800885999</v>
+        <v>0.9476895286674697</v>
       </c>
       <c r="E2" t="n">
         <v>0.8074</v>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.96686810167047</v>
+        <v>52.97715419436781</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.25493749123527</v>
+        <v>33.25928072819495</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8492926972798038</v>
+        <v>0.8492925452907298</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.34824589762638</v>
+        <v>12.35028283743287</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8175875763131449</v>
+        <v>0.8175759801707218</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.983374305778804</v>
+        <v>4.984711923530549</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8085291685461869</v>
+        <v>0.8085167490056384</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.380310407030018</v>
+        <v>2.382878705209441</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.4741147130126474</v>
+        <v>0.4743366790771977</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1511379958158588</v>
+        <v>0.1512101088557185</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1681970400232207</v>
+        <v>0.168276398320454</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8985770248691247</v>
+        <v>0.8985817997350071</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41431.04075546285</v>
+        <v>41431.16797490754</v>
       </c>
       <c r="C2" t="n">
-        <v>41849.53611662915</v>
+        <v>41849.66462111873</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91123.98773661825</v>
+        <v>91120.17093992609</v>
       </c>
       <c r="C3" t="n">
-        <v>92044.43205719015</v>
+        <v>92040.57670699604</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39129.56185085111</v>
+        <v>39130.16721304783</v>
       </c>
       <c r="C4" t="n">
-        <v>39524.80995035465</v>
+        <v>39525.42142732105</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>512.8297296663868</v>
+        <v>512.8323668467929</v>
       </c>
       <c r="C5" t="n">
-        <v>518.0098279458452</v>
+        <v>518.0124917644373</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32894.90826069228</v>
+        <v>32895.83052227839</v>
       </c>
       <c r="C6" t="n">
-        <v>33227.18006130533</v>
+        <v>33228.11163866504</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37169.84595424107</v>
+        <v>37171.08585720479</v>
       </c>
       <c r="C7" t="n">
-        <v>37545.29894367785</v>
+        <v>37546.55137091393</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>43.63251213462355</v>
+        <v>43.64241958526742</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80.84805557414643</v>
+        <v>80.8388386668191</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.089983702106528</v>
+        <v>7.089293158789988</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>515.7391123570252</v>
+        <v>515.7382915145602</v>
       </c>
       <c r="C3" t="n">
-        <v>6.314514940836464</v>
+        <v>6.315115065068595</v>
       </c>
       <c r="D3" t="n">
-        <v>3457.011543147286</v>
+        <v>3457.003270253831</v>
       </c>
       <c r="E3" t="n">
-        <v>57.23222838074906</v>
+        <v>57.23986139163505</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>282.7777499667993</v>
+        <v>282.7834659548741</v>
       </c>
       <c r="C4" t="n">
-        <v>6.689775725648646</v>
+        <v>6.690346902907234</v>
       </c>
       <c r="D4" t="n">
-        <v>2776.565049870018</v>
+        <v>2776.557983555541</v>
       </c>
       <c r="E4" t="n">
-        <v>57.23222838074906</v>
+        <v>57.23986139163505</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>282.2339584804037</v>
+        <v>282.2374189037218</v>
       </c>
       <c r="C5" t="n">
-        <v>6.689775725648646</v>
+        <v>6.690346902907234</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.581275981424</v>
+        <v>1248.599360023011</v>
       </c>
       <c r="E5" t="n">
-        <v>57.23222838074906</v>
+        <v>57.23986139163505</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162.4244425174845</v>
+        <v>162.4187841108125</v>
       </c>
       <c r="C6" t="n">
-        <v>6.689775725648646</v>
+        <v>6.690346902907234</v>
       </c>
       <c r="D6" t="n">
-        <v>689.5089104636146</v>
+        <v>689.4847928169796</v>
       </c>
       <c r="E6" t="n">
-        <v>57.23222838074906</v>
+        <v>57.23986139163505</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>155.2882783077181</v>
+        <v>155.2913301192506</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5476025324262251</v>
+        <v>0.5476460953637696</v>
       </c>
       <c r="D7" t="n">
-        <v>655.0376546551274</v>
+        <v>655.0508692867616</v>
       </c>
       <c r="E7" t="n">
-        <v>57.23222838074906</v>
+        <v>57.23986139163505</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>168.3874739263513</v>
+        <v>168.3976920416148</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5414770171807272</v>
+        <v>0.5415287539298216</v>
       </c>
       <c r="D8" t="n">
-        <v>2783.548791749504</v>
+        <v>2783.568606074376</v>
       </c>
       <c r="E8" t="n">
-        <v>14.18047246499257</v>
+        <v>14.18194148899522</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>155.2882781905926</v>
+        <v>155.2913300021199</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5476025324262251</v>
+        <v>0.5476460953637696</v>
       </c>
       <c r="D9" t="n">
-        <v>2752.141393692224</v>
+        <v>2752.144900306655</v>
       </c>
       <c r="E9" t="n">
-        <v>14.18047246499257</v>
+        <v>14.18194148899522</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>155.2882783077181</v>
+        <v>155.2913301192506</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5476025324262251</v>
+        <v>0.5476460953637696</v>
       </c>
       <c r="D10" t="n">
-        <v>676.9778656972438</v>
+        <v>677.0562657113358</v>
       </c>
       <c r="E10" t="n">
-        <v>71.41270084574163</v>
+        <v>71.42180288063028</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>155.2882783077181</v>
+        <v>155.2913301192506</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5476025324262251</v>
+        <v>0.5476460953637696</v>
       </c>
       <c r="D11" t="n">
-        <v>676.9778656972438</v>
+        <v>677.0562657113358</v>
       </c>
       <c r="E11" t="n">
-        <v>71.74744538242084</v>
+        <v>71.74658771169744</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5476025324262251</v>
+        <v>0.5476460953637696</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6234528567544</v>
+        <v>251.6234894364669</v>
       </c>
       <c r="E12" t="n">
-        <v>71.74781362026273</v>
+        <v>71.75925805642756</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59.49359753897983</v>
+        <v>59.49074326930321</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>249.6298493811599</v>
+        <v>249.6179087943925</v>
       </c>
       <c r="E13" t="n">
-        <v>71.41398902381958</v>
+        <v>71.42093464557601</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>58.81502042282477</v>
+        <v>58.81166897255571</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>246.7911800247199</v>
+        <v>246.7771604999445</v>
       </c>
       <c r="E14" t="n">
-        <v>59.61280047037501</v>
+        <v>59.61958619436666</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>96.17587728343403</v>
+        <v>96.17167729721052</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08833687814745436</v>
+        <v>0.08832332233551791</v>
       </c>
       <c r="D15" t="n">
-        <v>403.043214816675</v>
+        <v>403.0255165128415</v>
       </c>
       <c r="E15" t="n">
-        <v>55.17627732229383</v>
+        <v>55.17729594045942</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.76624920507106</v>
+        <v>61.76563438066842</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08833890581056832</v>
+        <v>0.08832315019127793</v>
       </c>
       <c r="D16" t="n">
-        <v>258.6302038125289</v>
+        <v>258.6276171253951</v>
       </c>
       <c r="E16" t="n">
-        <v>55.17680485399497</v>
+        <v>55.17848982847612</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>581.7619459340339</v>
+        <v>581.7599894780145</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>73.28508388046542</v>
+        <v>73.28483742391307</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>78.60913567090395</v>
+        <v>78.60680567175081</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>329.1364510540749</v>
+        <v>329.1266953476206</v>
       </c>
       <c r="E19" t="n">
-        <v>73.28508388046542</v>
+        <v>73.28483742391307</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>111.051116153374</v>
+        <v>111.0495205959979</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1485065935676298</v>
+        <v>0.148511381837377</v>
       </c>
       <c r="D20" t="n">
-        <v>2691.386509585664</v>
+        <v>2691.368726502179</v>
       </c>
       <c r="E20" t="n">
-        <v>14.10261551481701</v>
+        <v>14.10704675821065</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>109.5198104514033</v>
+        <v>109.5207675387844</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1410812638892483</v>
+        <v>0.1410858127455081</v>
       </c>
       <c r="D21" t="n">
-        <v>459.3832766783394</v>
+        <v>459.3873262394972</v>
       </c>
       <c r="E21" t="n">
-        <v>14.10261551481701</v>
+        <v>14.10704675821065</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.58839142996945</v>
+        <v>93.58445374471258</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>391.8545949172821</v>
+        <v>391.8381078291116</v>
       </c>
       <c r="E22" t="n">
-        <v>581.7619459340339</v>
+        <v>581.7599894780145</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>445.41999706347</v>
       </c>
       <c r="E23" t="n">
-        <v>581.7619459340339</v>
+        <v>581.7599894780145</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>56.13860331069179</v>
+        <v>56.13830979856957</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>581.7619459340339</v>
+        <v>581.7599894780145</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.58579258098558</v>
+        <v>97.58155576578361</v>
       </c>
       <c r="C25" t="n">
-        <v>0.09298618752363617</v>
+        <v>0.09297191824791359</v>
       </c>
       <c r="D25" t="n">
-        <v>2627.024457187365</v>
+        <v>2626.993707809339</v>
       </c>
       <c r="E25" t="n">
-        <v>41.07432279505225</v>
+        <v>41.07011831672133</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>512.8416009812838</v>
+        <v>512.8405121573303</v>
       </c>
       <c r="C26" t="n">
-        <v>5.690172361496999</v>
+        <v>5.690690969838327</v>
       </c>
       <c r="D26" t="n">
-        <v>3457.011543147286</v>
+        <v>3457.003270253831</v>
       </c>
       <c r="E26" t="n">
-        <v>45.43238947342654</v>
+        <v>45.43666385639767</v>
       </c>
       <c r="F26" t="n">
-        <v>6.949491163132095</v>
+        <v>6.949440326928755</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>202.0727804136719</v>
+        <v>202.0699038852307</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3990806068605515</v>
+        <v>0.3991106183767545</v>
       </c>
       <c r="D27" t="n">
-        <v>2865.315999078755</v>
+        <v>2865.308496727056</v>
       </c>
       <c r="E27" t="n">
-        <v>45.43238947342654</v>
+        <v>45.43666385639767</v>
       </c>
       <c r="F27" t="n">
-        <v>7.182595570440789</v>
+        <v>7.18254579868926</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>165.6438438310911</v>
+        <v>165.654077499801</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4563075273741601</v>
+        <v>0.4563493963336934</v>
       </c>
       <c r="D28" t="n">
-        <v>2783.548791749504</v>
+        <v>2783.568606074376</v>
       </c>
       <c r="E28" t="n">
-        <v>14.18047246499257</v>
+        <v>14.18194148899522</v>
       </c>
       <c r="F28" t="n">
-        <v>6.943297617264831</v>
+        <v>6.943301881431281</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>192.814157879732</v>
+        <v>192.8143780251814</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3990806068605515</v>
+        <v>0.3991106183767545</v>
       </c>
       <c r="D29" t="n">
-        <v>2845.865538316285</v>
+        <v>2845.864392997401</v>
       </c>
       <c r="E29" t="n">
-        <v>59.61286193841911</v>
+        <v>59.61860534539289</v>
       </c>
       <c r="F29" t="n">
-        <v>7.14126196603389</v>
+        <v>7.141225587946503</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>111.050847695812</v>
+        <v>111.0492810234501</v>
       </c>
       <c r="C30" t="n">
-        <v>0.148513911591869</v>
+        <v>0.1485061447326583</v>
       </c>
       <c r="D30" t="n">
-        <v>2691.385379754161</v>
+        <v>2691.367718318209</v>
       </c>
       <c r="E30" t="n">
-        <v>59.61286193841911</v>
+        <v>59.61860534539289</v>
       </c>
       <c r="F30" t="n">
-        <v>7.223006257442197</v>
+        <v>7.222983930124046</v>
       </c>
       <c r="G30" t="n">
-        <v>99.94301808994564</v>
+        <v>99.94233148006822</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.58523861049252</v>
+        <v>97.58128469072074</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09298432168936645</v>
+        <v>0.09297100534927379</v>
       </c>
       <c r="D31" t="n">
-        <v>2627.021874740854</v>
+        <v>2626.992503645915</v>
       </c>
       <c r="E31" t="n">
-        <v>45.51090741117753</v>
+        <v>45.5114277216548</v>
       </c>
       <c r="F31" t="n">
-        <v>7.262667405184145</v>
+        <v>7.26265202589432</v>
       </c>
       <c r="G31" t="n">
-        <v>98.02356047893667</v>
+        <v>98.02254951339326</v>
       </c>
     </row>
     <row r="32">
@@ -2890,19 +2890,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>68.15879028259303</v>
+        <v>68.14430217047567</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008682608097860678</v>
+        <v>0.008691631447558508</v>
       </c>
       <c r="D32" t="n">
-        <v>2627.021874740854</v>
+        <v>2626.992503645915</v>
       </c>
       <c r="E32" t="n">
-        <v>4.43599561638004</v>
+        <v>4.441096365890544</v>
       </c>
       <c r="F32" t="n">
-        <v>8.3446550964271</v>
+        <v>8.344090620292935</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>64.48461570612778</v>
+        <v>64.44603810673368</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002574978004106916</v>
+        <v>0.002575300990217761</v>
       </c>
       <c r="D33" t="n">
-        <v>2621.286383208531</v>
+        <v>2621.213605509864</v>
       </c>
       <c r="E33" t="n">
-        <v>4.43599561638004</v>
+        <v>4.441096365890544</v>
       </c>
       <c r="F33" t="n">
-        <v>8.888058536438503</v>
+        <v>8.887785122978793</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>21.55877242489191</v>
+        <v>21.56082166823808</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002574978004106916</v>
+        <v>0.002575300990217761</v>
       </c>
       <c r="D34" t="n">
-        <v>90.43601881897213</v>
+        <v>90.4445918077846</v>
       </c>
       <c r="E34" t="n">
-        <v>4.43599561638004</v>
+        <v>4.441096365890544</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>23.57922291508487</v>
+        <v>23.58127375737251</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>99.53235434201787</v>
+        <v>99.54092725979882</v>
       </c>
       <c r="E35" t="n">
-        <v>4.43599561638004</v>
+        <v>4.441096365890544</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>500.736206760108</v>
+        <v>500.7352654531902</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3469.865362288336</v>
+        <v>3469.863285418121</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16420681096586</v>
+        <v>10.16418797687332</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>263.9691703046813</v>
       </c>
       <c r="E41" t="n">
-        <v>11.80118855344457</v>
+        <v>11.80134845120934</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>515.736206760108</v>
+        <v>515.7352654531902</v>
       </c>
       <c r="C42" t="n">
-        <v>6.314487692981217</v>
+        <v>6.315005140790809</v>
       </c>
       <c r="D42" t="n">
-        <v>3457.004199731396</v>
+        <v>3456.996368780779</v>
       </c>
       <c r="E42" t="n">
-        <v>11.80118855344457</v>
+        <v>11.80134845120934</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.97395676317457</v>
+        <v>11.9739345756479</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.97395676317457</v>
+        <v>11.9739345756479</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.97395676317457</v>
+        <v>11.9739345756479</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.97395676317457</v>
+        <v>11.9739345756479</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762711977274328</v>
+        <v>4.762703152054635</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3400,22 +3400,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338336</v>
+        <v>0.1686684666338337</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944172</v>
+        <v>0.0509488958594416</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489642</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173056</v>
+        <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522552</v>
+        <v>0.002008604154522553</v>
       </c>
     </row>
     <row r="7">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.972866785002561</v>
+        <v>1.970993010039843</v>
       </c>
       <c r="C2" t="n">
-        <v>2.249235765030994</v>
+        <v>2.246992913563123</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8771276073743987</v>
+        <v>0.8771692149729039</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1950656593179574</v>
+        <v>0.1952945135890053</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>125.5161864126939</v>
+        <v>125.5329661863711</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>31.29615566529101</v>
+        <v>31.29757293664833</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.216204698240183</v>
+        <v>6.216240301220557</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.04583090501613</v>
+        <v>39.05098537833274</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26.88214240781254</v>
+        <v>26.88463653032342</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493770857478118</v>
+        <v>0.8493770636457684</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.209004364588987</v>
+        <v>9.210876274874328</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8310461192823128</v>
+        <v>0.8310375702163524</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.929241517319438</v>
+        <v>2.929807929624124</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8140345387343727</v>
+        <v>0.814037174176791</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02544261529517198</v>
+        <v>0.02566464351086521</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03349036015628025</v>
+        <v>0.03372008393260018</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04035130450535294</v>
+        <v>0.04039770231886166</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04521388453907338</v>
+        <v>0.04526576852394323</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8924538317534241</v>
+        <v>0.8924559029080306</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38943.05348761246</v>
+        <v>38944.63986925903</v>
       </c>
       <c r="C2" t="n">
-        <v>39336.41766425501</v>
+        <v>39338.02006995861</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87449.81784648138</v>
+        <v>87454.42698004296</v>
       </c>
       <c r="C3" t="n">
-        <v>88333.14933988018</v>
+        <v>88337.80503034643</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31996.82517441956</v>
+        <v>32001.85108724995</v>
       </c>
       <c r="C4" t="n">
-        <v>32320.02542870663</v>
+        <v>32325.10210833328</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>445.4133985717453</v>
+        <v>445.4379984935546</v>
       </c>
       <c r="C5" t="n">
-        <v>449.9125238098438</v>
+        <v>449.9373722157117</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28170.5976193587</v>
+        <v>28171.59932714263</v>
       </c>
       <c r="C6" t="n">
-        <v>28455.14911046334</v>
+        <v>28456.16093650771</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30518.0927085298</v>
+        <v>30523.35005439251</v>
       </c>
       <c r="C7" t="n">
-        <v>30826.35627124222</v>
+        <v>30831.6667216086</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.16231258730535</v>
+        <v>31.1717993171925</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.22158956562643</v>
+        <v>91.21240620601628</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.888710639239369</v>
+        <v>7.887969164271565</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34608.8451090668</v>
+        <v>34608.75986979958</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3072.763330951278</v>
+        <v>3073.266713605619</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22647.57842255646</v>
+        <v>22647.55756669997</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7875.773087501619</v>
+        <v>7875.75849383564</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5689.88958968826</v>
+        <v>5689.879046425117</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21121.07458938589</v>
+        <v>21121.03545241429</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37759.50059752705</v>
+        <v>37759.93970628067</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7576734662120845</v>
+        <v>0.757774756648383</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>461.8284434265763</v>
+        <v>461.8282266255479</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>866.9889922362479</v>
+        <v>866.9887469949055</v>
       </c>
       <c r="E6" t="n">
         <v>523.99195134</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>303.6170220722598</v>
+        <v>303.6235482588451</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>691.3289810055301</v>
+        <v>691.3360934157398</v>
       </c>
       <c r="E7" t="n">
         <v>523.99195134</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.869603375478</v>
+        <v>233.8751419195181</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>615.8987957721916</v>
+        <v>615.9047412237013</v>
       </c>
       <c r="E8" t="n">
         <v>523.99195134</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>232.9485917617374</v>
+        <v>232.9541266071405</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>614.910212213568</v>
+        <v>614.9161525813763</v>
       </c>
       <c r="E9" t="n">
         <v>523.99195134</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173.525495056604</v>
+        <v>173.5294170244763</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>551.498589236662</v>
+        <v>551.5027517577738</v>
       </c>
       <c r="E10" t="n">
         <v>523.99195134</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>105.6539491909142</v>
+        <v>105.6556361183784</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>479.8461547905535</v>
+        <v>479.8479271466391</v>
       </c>
       <c r="E11" t="n">
         <v>523.99195134</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>504.4843610021088</v>
+        <v>504.4818833113654</v>
       </c>
       <c r="C3" t="n">
-        <v>7.671200254923281</v>
+        <v>7.672021284275727</v>
       </c>
       <c r="D3" t="n">
-        <v>3414.443420544635</v>
+        <v>3414.427628163603</v>
       </c>
       <c r="E3" t="n">
-        <v>63.12221428287587</v>
+        <v>63.12136820552782</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295.3707980579838</v>
+        <v>295.377709649022</v>
       </c>
       <c r="C4" t="n">
-        <v>8.041683856356311</v>
+        <v>8.04247898125964</v>
       </c>
       <c r="D4" t="n">
-        <v>2758.061988199365</v>
+        <v>2758.050108430896</v>
       </c>
       <c r="E4" t="n">
-        <v>63.12221428287587</v>
+        <v>63.12136820552782</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>294.5070661839384</v>
+        <v>294.5136420301488</v>
       </c>
       <c r="C5" t="n">
-        <v>8.041683856356311</v>
+        <v>8.04247898125964</v>
       </c>
       <c r="D5" t="n">
-        <v>1314.462167649612</v>
+        <v>1314.498174490974</v>
       </c>
       <c r="E5" t="n">
-        <v>63.12221428287587</v>
+        <v>63.12136820552782</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163.4139990006773</v>
+        <v>163.4178288889001</v>
       </c>
       <c r="C6" t="n">
-        <v>8.041683856356311</v>
+        <v>8.04247898125964</v>
       </c>
       <c r="D6" t="n">
-        <v>694.5726259859156</v>
+        <v>694.5896322686375</v>
       </c>
       <c r="E6" t="n">
-        <v>63.12221428287587</v>
+        <v>63.12136820552782</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>162.072218502134</v>
+        <v>162.0758875840753</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6515093838313647</v>
+        <v>0.6515695378227063</v>
       </c>
       <c r="D7" t="n">
-        <v>684.4830988528992</v>
+        <v>684.4990636121695</v>
       </c>
       <c r="E7" t="n">
-        <v>63.12221428287587</v>
+        <v>63.12136820552782</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.9845839448985</v>
+        <v>174.9876301243273</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6446374396926027</v>
+        <v>0.644693948079562</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.424755722785</v>
+        <v>2791.42765102648</v>
       </c>
       <c r="E8" t="n">
-        <v>16.16319671711486</v>
+        <v>16.1639054044614</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>162.0722183714123</v>
+        <v>162.075887453346</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6515093838313647</v>
+        <v>0.6515695378227063</v>
       </c>
       <c r="D9" t="n">
-        <v>2759.698654133923</v>
+        <v>2759.702610269231</v>
       </c>
       <c r="E9" t="n">
-        <v>16.16319671711486</v>
+        <v>16.1639054044614</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.072218502134</v>
+        <v>162.0758875840753</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6515093838313647</v>
+        <v>0.6515695378227063</v>
       </c>
       <c r="D10" t="n">
-        <v>692.6737883558051</v>
+        <v>692.6676148329849</v>
       </c>
       <c r="E10" t="n">
-        <v>79.28541099999073</v>
+        <v>79.28527360998922</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>162.072218502134</v>
+        <v>162.0758875840753</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6515093838313647</v>
+        <v>0.6515695378227063</v>
       </c>
       <c r="D11" t="n">
-        <v>692.6737883558051</v>
+        <v>692.6676148329849</v>
       </c>
       <c r="E11" t="n">
-        <v>84.29241364648254</v>
+        <v>84.29641600150146</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6515093838313647</v>
+        <v>0.6515695378227063</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7107022943142</v>
+        <v>251.7107528043748</v>
       </c>
       <c r="E12" t="n">
-        <v>84.2944130218351</v>
+        <v>84.29654967298619</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.32981098784933</v>
+        <v>53.32725570847805</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>223.8518365773705</v>
+        <v>223.8411528951033</v>
       </c>
       <c r="E13" t="n">
-        <v>73.39498327601653</v>
+        <v>73.40416710024144</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>53.32981098784933</v>
+        <v>53.32725570847805</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>223.8518365773705</v>
+        <v>223.8411528951033</v>
       </c>
       <c r="E14" t="n">
-        <v>73.39498327601653</v>
+        <v>73.40416710024144</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>90.94369140851245</v>
+        <v>90.93940217759166</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07273503031673988</v>
+        <v>0.07272325261999156</v>
       </c>
       <c r="D15" t="n">
-        <v>381.0102611848368</v>
+        <v>380.9922108817312</v>
       </c>
       <c r="E15" t="n">
-        <v>56.7793166909618</v>
+        <v>56.77970916967747</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>60.87326164699101</v>
+        <v>60.87258916016935</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0727353008452981</v>
+        <v>0.07272362338503294</v>
       </c>
       <c r="D16" t="n">
-        <v>254.879466797728</v>
+        <v>254.8766423850433</v>
       </c>
       <c r="E16" t="n">
-        <v>56.77896658398694</v>
+        <v>56.78022150420676</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>75.77816118721179</v>
+        <v>75.77593292238548</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>317.2831608908558</v>
+        <v>317.273831146028</v>
       </c>
       <c r="E19" t="n">
         <v>74.0152414976713</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>112.3098575050371</v>
+        <v>112.3097807027038</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1548628487813186</v>
+        <v>0.1548680069995279</v>
       </c>
       <c r="D20" t="n">
-        <v>2655.906255802588</v>
+        <v>2655.886346818094</v>
       </c>
       <c r="E20" t="n">
-        <v>20.11339622692104</v>
+        <v>20.11818479185366</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>110.7685341104732</v>
+        <v>110.7695302202136</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1471197063422527</v>
+        <v>0.1471246066495515</v>
       </c>
       <c r="D21" t="n">
-        <v>464.6679346762229</v>
+        <v>464.672151182457</v>
       </c>
       <c r="E21" t="n">
-        <v>20.11339622692104</v>
+        <v>20.11818479185366</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>88.64562838480339</v>
+        <v>88.64160113957628</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>371.1592460471718</v>
+        <v>371.1423839714059</v>
       </c>
       <c r="E22" t="n">
         <v>587.5581856834091</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>55.78198286834274</v>
+        <v>55.78170217178662</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>92.30813601652869</v>
+        <v>92.3038098469633</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0765631898070946</v>
+        <v>0.07655079223157006</v>
       </c>
       <c r="D25" t="n">
-        <v>2562.377734838191</v>
+        <v>2562.339762430592</v>
       </c>
       <c r="E25" t="n">
-        <v>36.66602456542397</v>
+        <v>36.66170565208549</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>501.5673414304459</v>
+        <v>501.5651974330003</v>
       </c>
       <c r="C26" t="n">
-        <v>7.064020552530192</v>
+        <v>7.064921957518885</v>
       </c>
       <c r="D26" t="n">
-        <v>3414.443420544635</v>
+        <v>3414.427628163603</v>
       </c>
       <c r="E26" t="n">
-        <v>57.23222838074906</v>
+        <v>57.23986139163505</v>
       </c>
       <c r="F26" t="n">
-        <v>6.7999226504895</v>
+        <v>6.799846636162794</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>188.9668788430527</v>
+        <v>188.9615355302213</v>
       </c>
       <c r="C27" t="n">
-        <v>0.476355911331577</v>
+        <v>0.4764025058446927</v>
       </c>
       <c r="D27" t="n">
-        <v>2833.390778840733</v>
+        <v>2833.376592756039</v>
       </c>
       <c r="E27" t="n">
-        <v>57.23222838074906</v>
+        <v>57.23986139163505</v>
       </c>
       <c r="F27" t="n">
-        <v>7.034757931885139</v>
+        <v>7.034683369426562</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172.1231384961526</v>
+        <v>172.1260441563471</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5507046306014187</v>
+        <v>0.5507577450069314</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.424755722785</v>
+        <v>2791.42765102648</v>
       </c>
       <c r="E28" t="n">
-        <v>16.16319671711486</v>
+        <v>16.1639054044614</v>
       </c>
       <c r="F28" t="n">
-        <v>6.877523759718993</v>
+        <v>6.877487497933112</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>184.6979852141352</v>
+        <v>184.6947558575364</v>
       </c>
       <c r="C29" t="n">
-        <v>0.476355911331577</v>
+        <v>0.4764025058446927</v>
       </c>
       <c r="D29" t="n">
-        <v>2824.148989094493</v>
+        <v>2824.139209505431</v>
       </c>
       <c r="E29" t="n">
-        <v>73.39542509786392</v>
+        <v>73.40376679609645</v>
       </c>
       <c r="F29" t="n">
-        <v>7.014666082036951</v>
+        <v>7.014600912462634</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>112.3098613638651</v>
+        <v>112.3101959902077</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1548644028774015</v>
+        <v>0.1548661198988633</v>
       </c>
       <c r="D30" t="n">
-        <v>2655.906269862859</v>
+        <v>2655.887859792821</v>
       </c>
       <c r="E30" t="n">
-        <v>73.39542509786392</v>
+        <v>73.40376679609645</v>
       </c>
       <c r="F30" t="n">
-        <v>7.112047758868193</v>
+        <v>7.111995072556777</v>
       </c>
       <c r="G30" t="n">
-        <v>98.26176625310819</v>
+        <v>98.26091486628617</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>92.30824465362474</v>
+        <v>92.30415692455273</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07656350115171069</v>
+        <v>0.07655178679589182</v>
       </c>
       <c r="D31" t="n">
-        <v>2562.378214062857</v>
+        <v>2562.341073243525</v>
       </c>
       <c r="E31" t="n">
-        <v>53.28213297232609</v>
+        <v>53.28576327850446</v>
       </c>
       <c r="F31" t="n">
-        <v>7.172653124229625</v>
+        <v>7.172618116448088</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56785084072142</v>
+        <v>95.56653049132066</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>69.708701826207</v>
+        <v>69.71967828803457</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03080994625807005</v>
+        <v>0.03082460349925325</v>
       </c>
       <c r="D32" t="n">
-        <v>2562.378214062857</v>
+        <v>2562.341073243525</v>
       </c>
       <c r="E32" t="n">
-        <v>16.6160166920296</v>
+        <v>16.62394559603467</v>
       </c>
       <c r="F32" t="n">
-        <v>7.573934725083174</v>
+        <v>7.573614355083224</v>
       </c>
       <c r="G32" t="n">
-        <v>97.29106366428523</v>
+        <v>97.28863581588934</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25.93301186763267</v>
+        <v>25.9355708381276</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003350579666663341</v>
+        <v>0.003351087223007898</v>
       </c>
       <c r="D33" t="n">
-        <v>2419.124241035025</v>
+        <v>2419.000932273753</v>
       </c>
       <c r="E33" t="n">
-        <v>16.6160166920296</v>
+        <v>16.62394559603467</v>
       </c>
       <c r="F33" t="n">
-        <v>8.105213563572821</v>
+        <v>8.104735181827328</v>
       </c>
       <c r="G33" t="n">
-        <v>94.70906035898668</v>
+        <v>94.70380255914368</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25.93301186763267</v>
+        <v>25.9355708381276</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003350579666663341</v>
+        <v>0.003351087223007898</v>
       </c>
       <c r="D34" t="n">
-        <v>108.7306970929954</v>
+        <v>108.7413972124093</v>
       </c>
       <c r="E34" t="n">
-        <v>16.6160166920296</v>
+        <v>16.62394559603467</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>27.95652465255444</v>
+        <v>27.95908520796996</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>117.8266193358009</v>
+        <v>117.837318994768</v>
       </c>
       <c r="E35" t="n">
-        <v>16.6160166920296</v>
+        <v>16.62394559603467</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>500.736206760108</v>
+        <v>500.7352654531902</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3469.865362288336</v>
+        <v>3469.863285418121</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16420681096586</v>
+        <v>10.16418797687332</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>515.736206760108</v>
+        <v>515.7352654531902</v>
       </c>
       <c r="C42" t="n">
-        <v>6.314487692981217</v>
+        <v>6.315005140790809</v>
       </c>
       <c r="D42" t="n">
-        <v>3457.004199731396</v>
+        <v>3456.996368780779</v>
       </c>
       <c r="E42" t="n">
-        <v>11.80118855344457</v>
+        <v>11.80134845120934</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=-10, Volume=10x15x8.xlsx
+++ b/ПКМ/resdata PKM Temp=-10, Volume=10x15x8.xlsx
@@ -527,7 +527,7 @@
         <v>946.855745932765</v>
       </c>
       <c r="E3" t="n">
-        <v>441.6182247649745</v>
+        <v>441.6288342629764</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>13.64205439693982</v>
+        <v>13.64203677447703</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>540.7929391939846</v>
+        <v>540.7927206498008</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>964.3635672536016</v>
+        <v>964.3631373185503</v>
       </c>
       <c r="E5" t="n">
-        <v>455.2602791619144</v>
+        <v>455.2708710374534</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7781539124637367</v>
+        <v>0.7781539651265155</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1202121061052787</v>
+        <v>0.1202121916946044</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03195349426887102</v>
+        <v>0.03195344878602965</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06311478294883593</v>
+        <v>0.06311469179188638</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00656570421327772</v>
+        <v>0.006565702600963962</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>465.3117479717935</v>
+        <v>465.3112891967226</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>877.955809163272</v>
+        <v>877.9551160392452</v>
       </c>
       <c r="E6" t="n">
-        <v>455.2602791619144</v>
+        <v>455.2708710374534</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7781539124637367</v>
+        <v>0.7781539651265155</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1202121061052787</v>
+        <v>0.1202121916946044</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03195349426887102</v>
+        <v>0.03195344878602965</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06311478294883593</v>
+        <v>0.06311469179188638</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00656570421327772</v>
+        <v>0.006565702600963962</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.7605449673982</v>
+        <v>290.7635213420591</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>683.9177850400893</v>
+        <v>683.9208649624579</v>
       </c>
       <c r="E7" t="n">
-        <v>455.2602791619144</v>
+        <v>455.2708710374534</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7781539124637367</v>
+        <v>0.7781539651265155</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1202121061052787</v>
+        <v>0.1202121916946044</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03195349426887102</v>
+        <v>0.03195344878602965</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06311478294883593</v>
+        <v>0.06311469179188638</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00656570421327772</v>
+        <v>0.006565702600963962</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>225.0961285478548</v>
+        <v>225.0893601620943</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>612.9142216107465</v>
+        <v>612.9067954901325</v>
       </c>
       <c r="E8" t="n">
-        <v>455.2602791619144</v>
+        <v>455.2708710374534</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7781539124637367</v>
+        <v>0.7781539651265155</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1202121061052787</v>
+        <v>0.1202121916946044</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03195349426887102</v>
+        <v>0.03195344878602965</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06311478294883593</v>
+        <v>0.06311469179188638</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00656570421327772</v>
+        <v>0.006565702600963962</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>224.1757173088131</v>
+        <v>224.1689478673587</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>611.9259136190104</v>
+        <v>611.9184877592127</v>
       </c>
       <c r="E9" t="n">
-        <v>455.2602791619144</v>
+        <v>455.2708710374534</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7781539124637367</v>
+        <v>0.7781539651265155</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1202121061052787</v>
+        <v>0.1202121916946044</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03195349426887102</v>
+        <v>0.03195344878602965</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06311478294883593</v>
+        <v>0.06311469179188638</v>
       </c>
       <c r="J9" t="n">
-        <v>0.00656570421327772</v>
+        <v>0.006565702600963962</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.6340976470287</v>
+        <v>165.6336386918417</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>549.4206562113304</v>
+        <v>549.4200142464149</v>
       </c>
       <c r="E10" t="n">
-        <v>455.2602791619144</v>
+        <v>455.2708710374534</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7781539124637367</v>
+        <v>0.7781539651265155</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1202121061052787</v>
+        <v>0.1202121916946044</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03195349426887102</v>
+        <v>0.03195344878602965</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06311478294883593</v>
+        <v>0.06311469179188638</v>
       </c>
       <c r="J10" t="n">
-        <v>0.00656570421327772</v>
+        <v>0.006565702600963962</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101.555319078741</v>
+        <v>101.5617099045129</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>481.6974918307998</v>
+        <v>481.7040647419596</v>
       </c>
       <c r="E11" t="n">
-        <v>455.2602791619144</v>
+        <v>455.2708710374534</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7781539124637367</v>
+        <v>0.7781539651265155</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1202121061052787</v>
+        <v>0.1202121916946044</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03195349426887102</v>
+        <v>0.03195344878602965</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06311478294883593</v>
+        <v>0.06311469179188638</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00656570421327772</v>
+        <v>0.006565702600963962</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>12.93142673079205</v>
+        <v>12.9314100263002</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7106276661477794</v>
+        <v>0.7106267481768317</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.9739345756479</v>
+        <v>11.97397295751257</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.9739345756479</v>
+        <v>11.97397295751257</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.9739345756479</v>
+        <v>11.97397295751257</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.9739345756479</v>
+        <v>11.97397295751257</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1131,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.04162103831</v>
+        <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762703152054635</v>
+        <v>4.762718418667848</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1143,22 +1143,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338337</v>
+        <v>0.1686684666338336</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0509488958594416</v>
+        <v>0.05094889585944165</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489642</v>
+        <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
         <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522553</v>
+        <v>0.002008604154522552</v>
       </c>
     </row>
     <row r="7">
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6369304995680752</v>
+        <v>0.6898360331766223</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6720877252528605</v>
+        <v>0.7109245612630565</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9476895286674697</v>
+        <v>0.970336475576301</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8074</v>
+        <v>0.7999016983124149</v>
       </c>
     </row>
     <row r="3">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.97715419436781</v>
+        <v>60.55702851557002</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.25928072819495</v>
+        <v>36.52885904125704</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8492925452907298</v>
+        <v>0.8491161395473014</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.35028283743287</v>
+        <v>13.67364233674128</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8175759801707218</v>
+        <v>0.810527798222173</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.984711923530549</v>
+        <v>5.970358274911006</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8085167490056384</v>
+        <v>0.7964493388691837</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.382878705209441</v>
+        <v>4.384168862660706</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.4743366790771977</v>
+        <v>0.6102787629904918</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1512101088557185</v>
+        <v>0.2012388486504516</v>
       </c>
       <c r="C12" t="n">
-        <v>0.168276398320454</v>
+        <v>0.2230652512469096</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8985817997350071</v>
+        <v>0.9021523860195575</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41431.16797490754</v>
+        <v>41231.96385943368</v>
       </c>
       <c r="C2" t="n">
-        <v>41849.66462111873</v>
+        <v>41648.44834286231</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91120.17093992609</v>
+        <v>88663.15984905571</v>
       </c>
       <c r="C3" t="n">
-        <v>92040.57670699604</v>
+        <v>89558.74732227849</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39130.16721304783</v>
+        <v>39974.58570344633</v>
       </c>
       <c r="C4" t="n">
-        <v>39525.42142732105</v>
+        <v>40378.36939742053</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>512.8323668467929</v>
+        <v>514.257304860516</v>
       </c>
       <c r="C5" t="n">
-        <v>518.0124917644373</v>
+        <v>519.4518230914304</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32895.83052227839</v>
+        <v>33561.31807771666</v>
       </c>
       <c r="C6" t="n">
-        <v>33228.11163866504</v>
+        <v>33900.32129062289</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37171.08585720479</v>
+        <v>37849.24323411076</v>
       </c>
       <c r="C7" t="n">
-        <v>37546.55137091393</v>
+        <v>38231.5588223341</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>43.64241958526742</v>
+        <v>49.48199571777661</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80.8388386668191</v>
+        <v>75.44795901920544</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.089293158789988</v>
+        <v>6.64059667389444</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>515.7382915145602</v>
+        <v>515.7363203493007</v>
       </c>
       <c r="C3" t="n">
-        <v>6.315115065068595</v>
+        <v>6.315397065452229</v>
       </c>
       <c r="D3" t="n">
-        <v>3457.003270253831</v>
+        <v>3456.995390859508</v>
       </c>
       <c r="E3" t="n">
-        <v>57.23986139163505</v>
+        <v>57.23754441863894</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>282.7834659548741</v>
+        <v>282.7864333962137</v>
       </c>
       <c r="C4" t="n">
-        <v>6.690346902907234</v>
+        <v>6.690643442892711</v>
       </c>
       <c r="D4" t="n">
-        <v>2776.557983555541</v>
+        <v>2776.554314648674</v>
       </c>
       <c r="E4" t="n">
-        <v>57.23986139163505</v>
+        <v>57.23754441863894</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>282.2374189037218</v>
+        <v>282.2585907885912</v>
       </c>
       <c r="C5" t="n">
-        <v>6.690346902907234</v>
+        <v>6.690643442892711</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.599360023011</v>
+        <v>1248.712009485563</v>
       </c>
       <c r="E5" t="n">
-        <v>57.23986139163505</v>
+        <v>57.23754441863894</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162.4187841108125</v>
+        <v>162.4224211862728</v>
       </c>
       <c r="C6" t="n">
-        <v>6.690346902907234</v>
+        <v>6.690643442892711</v>
       </c>
       <c r="D6" t="n">
-        <v>689.4847928169796</v>
+        <v>689.5006825255723</v>
       </c>
       <c r="E6" t="n">
-        <v>57.23986139163505</v>
+        <v>57.23754441863894</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>155.2913301192506</v>
+        <v>155.2917873887973</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5476460953637696</v>
+        <v>0.5476526228743859</v>
       </c>
       <c r="D7" t="n">
-        <v>655.0508692867616</v>
+        <v>655.052849309378</v>
       </c>
       <c r="E7" t="n">
-        <v>57.23986139163505</v>
+        <v>57.23754441863894</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>168.3976920416148</v>
+        <v>168.3933312604183</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5415287539298216</v>
+        <v>0.5414944518140123</v>
       </c>
       <c r="D8" t="n">
-        <v>2783.568606074376</v>
+        <v>2783.558447994884</v>
       </c>
       <c r="E8" t="n">
-        <v>14.18194148899522</v>
+        <v>14.17868863117139</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>155.2913300021199</v>
+        <v>155.2917872716654</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5476460953637696</v>
+        <v>0.5476526228743859</v>
       </c>
       <c r="D9" t="n">
-        <v>2752.144900306655</v>
+        <v>2752.145425713674</v>
       </c>
       <c r="E9" t="n">
-        <v>14.18194148899522</v>
+        <v>14.17868863117139</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>155.2913301192506</v>
+        <v>155.2917873887973</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5476460953637696</v>
+        <v>0.5476526228743859</v>
       </c>
       <c r="D10" t="n">
-        <v>677.0562657113358</v>
+        <v>676.9746868892672</v>
       </c>
       <c r="E10" t="n">
-        <v>71.42180288063028</v>
+        <v>71.41623304981033</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>155.2913301192506</v>
+        <v>155.2917873887973</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5476460953637696</v>
+        <v>0.5476526228743859</v>
       </c>
       <c r="D11" t="n">
-        <v>677.0562657113358</v>
+        <v>676.9746868892672</v>
       </c>
       <c r="E11" t="n">
-        <v>71.74658771169744</v>
+        <v>71.7543737860906</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2449,13 +2449,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5476460953637696</v>
+        <v>0.5476526228743859</v>
       </c>
       <c r="D12" t="n">
-        <v>251.6234894364669</v>
+        <v>251.623494917601</v>
       </c>
       <c r="E12" t="n">
-        <v>71.75925805642756</v>
+        <v>71.75337414921049</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59.49074326930321</v>
+        <v>59.49041194633077</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>249.6179087943925</v>
+        <v>249.6165227340076</v>
       </c>
       <c r="E13" t="n">
-        <v>71.42093464557601</v>
+        <v>71.41842335804809</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>58.81166897255571</v>
+        <v>58.81124226650883</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>246.7771604999445</v>
+        <v>246.7753755369134</v>
       </c>
       <c r="E14" t="n">
-        <v>59.61958619436666</v>
+        <v>59.61705803496134</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>96.17167729721052</v>
+        <v>96.17175267643415</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08832332233551791</v>
+        <v>0.08832356561314005</v>
       </c>
       <c r="D15" t="n">
-        <v>403.0255165128415</v>
+        <v>403.0258341528152</v>
       </c>
       <c r="E15" t="n">
-        <v>55.17729594045942</v>
+        <v>55.17746105058512</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.76563438066842</v>
+        <v>61.76516212859548</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08832315019127793</v>
+        <v>0.08832346729067356</v>
       </c>
       <c r="D16" t="n">
-        <v>258.6276171253951</v>
+        <v>258.6256406490442</v>
       </c>
       <c r="E16" t="n">
-        <v>55.17848982847612</v>
+        <v>55.17617749194031</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>581.7599894780145</v>
+        <v>581.7596276245939</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>73.28483742391307</v>
+        <v>73.28479184090706</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>78.60680567175081</v>
+        <v>78.60616993743793</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>329.1266953476206</v>
+        <v>329.1240335280526</v>
       </c>
       <c r="E19" t="n">
-        <v>73.28483742391307</v>
+        <v>73.28479184090706</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>111.0495205959979</v>
+        <v>111.0505862774721</v>
       </c>
       <c r="C20" t="n">
-        <v>0.148511381837377</v>
+        <v>0.1485112912763779</v>
       </c>
       <c r="D20" t="n">
-        <v>2691.368726502179</v>
+        <v>2691.365495348855</v>
       </c>
       <c r="E20" t="n">
-        <v>14.10704675821065</v>
+        <v>14.10698389685293</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>109.5207675387844</v>
+        <v>109.5207494361277</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1410858127455081</v>
+        <v>0.141085726712559</v>
       </c>
       <c r="D21" t="n">
-        <v>459.3873262394972</v>
+        <v>459.3872496447914</v>
       </c>
       <c r="E21" t="n">
-        <v>14.10704675821065</v>
+        <v>14.10698389685293</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.58445374471258</v>
+        <v>93.58452089635938</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>391.8381078291116</v>
+        <v>391.8383889930568</v>
       </c>
       <c r="E22" t="n">
-        <v>581.7599894780145</v>
+        <v>581.7596276245939</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>445.41999706347</v>
       </c>
       <c r="E23" t="n">
-        <v>581.7599894780145</v>
+        <v>581.7596276245939</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>56.13830979856957</v>
+        <v>56.13822971453731</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>581.7599894780145</v>
+        <v>581.7596276245939</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.58155576578361</v>
+        <v>97.58163180598967</v>
       </c>
       <c r="C25" t="n">
-        <v>0.09297191824791359</v>
+        <v>0.0929721743296211</v>
       </c>
       <c r="D25" t="n">
-        <v>2626.993707809339</v>
+        <v>2626.986004757326</v>
       </c>
       <c r="E25" t="n">
-        <v>41.07011831672133</v>
+        <v>41.07040950036687</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>512.8405121573303</v>
+        <v>512.8388321099546</v>
       </c>
       <c r="C26" t="n">
-        <v>5.690690969838327</v>
+        <v>5.691047251589826</v>
       </c>
       <c r="D26" t="n">
-        <v>3457.003270253831</v>
+        <v>3456.995390859508</v>
       </c>
       <c r="E26" t="n">
-        <v>45.43666385639767</v>
+        <v>45.43964592208543</v>
       </c>
       <c r="F26" t="n">
-        <v>6.949440326928755</v>
+        <v>6.949402611023199</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>202.0699038852307</v>
+        <v>202.062015295761</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3991106183767545</v>
+        <v>0.3991067619148365</v>
       </c>
       <c r="D27" t="n">
-        <v>2865.308496727056</v>
+        <v>2865.292173424132</v>
       </c>
       <c r="E27" t="n">
-        <v>45.43666385639767</v>
+        <v>45.43964592208543</v>
       </c>
       <c r="F27" t="n">
-        <v>7.18254579868926</v>
+        <v>7.182515816318677</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>165.654077499801</v>
+        <v>165.6485492753545</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4563493963336934</v>
+        <v>0.4563192856027039</v>
       </c>
       <c r="D28" t="n">
-        <v>2783.568606074376</v>
+        <v>2783.558447994884</v>
       </c>
       <c r="E28" t="n">
-        <v>14.18194148899522</v>
+        <v>14.17868863117139</v>
       </c>
       <c r="F28" t="n">
-        <v>6.943301881431281</v>
+        <v>6.94330813933664</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>192.8143780251814</v>
+        <v>192.8093079337615</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3991106183767545</v>
+        <v>0.3991067619148365</v>
       </c>
       <c r="D29" t="n">
-        <v>2845.864392997401</v>
+        <v>2845.853907457615</v>
       </c>
       <c r="E29" t="n">
-        <v>59.61860534539289</v>
+        <v>59.61833455325682</v>
       </c>
       <c r="F29" t="n">
-        <v>7.141225587946503</v>
+        <v>7.141207443513836</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>111.0492810234501</v>
+        <v>111.0491326812544</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1485061447326583</v>
+        <v>0.1485054093358517</v>
       </c>
       <c r="D30" t="n">
-        <v>2691.367718318209</v>
+        <v>2691.359378186389</v>
       </c>
       <c r="E30" t="n">
-        <v>59.61860534539289</v>
+        <v>59.61833455325682</v>
       </c>
       <c r="F30" t="n">
-        <v>7.222983930124046</v>
+        <v>7.222964460868071</v>
       </c>
       <c r="G30" t="n">
-        <v>99.94233148006822</v>
+        <v>99.94196703135206</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.58128469072074</v>
+        <v>97.58115694615537</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09297100534927379</v>
+        <v>0.09297057514685832</v>
       </c>
       <c r="D31" t="n">
-        <v>2626.992503645915</v>
+        <v>2626.984463371386</v>
       </c>
       <c r="E31" t="n">
-        <v>45.5114277216548</v>
+        <v>45.51128300303857</v>
       </c>
       <c r="F31" t="n">
-        <v>7.26265202589432</v>
+        <v>7.262632401023573</v>
       </c>
       <c r="G31" t="n">
-        <v>98.02254951339326</v>
+        <v>98.022203459051</v>
       </c>
     </row>
     <row r="32">
@@ -2890,19 +2890,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>68.14430217047567</v>
+        <v>68.14003612602426</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008691631447558508</v>
+        <v>0.008691192102818412</v>
       </c>
       <c r="D32" t="n">
-        <v>2626.992503645915</v>
+        <v>2626.984463371386</v>
       </c>
       <c r="E32" t="n">
-        <v>4.441096365890544</v>
+        <v>4.440880543021031</v>
       </c>
       <c r="F32" t="n">
-        <v>8.344090620292935</v>
+        <v>8.34409034457957</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>64.44603810673368</v>
+        <v>64.44278341344398</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002575300990217761</v>
+        <v>0.0025752862741052</v>
       </c>
       <c r="D33" t="n">
-        <v>2621.213605509864</v>
+        <v>2621.207474081814</v>
       </c>
       <c r="E33" t="n">
-        <v>4.441096365890544</v>
+        <v>4.440880543021031</v>
       </c>
       <c r="F33" t="n">
-        <v>8.887785122978793</v>
+        <v>8.887769596484684</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>21.56082166823808</v>
+        <v>21.56072830412324</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002575300990217761</v>
+        <v>0.0025752862741052</v>
       </c>
       <c r="D34" t="n">
-        <v>90.4445918077846</v>
+        <v>90.44420122010426</v>
       </c>
       <c r="E34" t="n">
-        <v>4.441096365890544</v>
+        <v>4.440880543021031</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>23.58127375737251</v>
+        <v>23.58118032053898</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>99.54092725979882</v>
+        <v>99.54053667572765</v>
       </c>
       <c r="E35" t="n">
-        <v>4.441096365890544</v>
+        <v>4.440880543021031</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>500.7352654531902</v>
+        <v>500.7398071047627</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3469.863285418121</v>
+        <v>3469.873305978826</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16418797687332</v>
+        <v>10.16422055768332</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>263.9691703046813</v>
       </c>
       <c r="E41" t="n">
-        <v>11.80134845120934</v>
+        <v>11.80136532308675</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>515.7352654531902</v>
+        <v>515.7398071047627</v>
       </c>
       <c r="C42" t="n">
-        <v>6.315005140790809</v>
+        <v>6.314974784481755</v>
       </c>
       <c r="D42" t="n">
-        <v>3456.996368780779</v>
+        <v>3457.007294956141</v>
       </c>
       <c r="E42" t="n">
-        <v>11.80134845120934</v>
+        <v>11.80136532308675</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>11.9739345756479</v>
+        <v>11.97397295751257</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>11.9739345756479</v>
+        <v>11.97397295751257</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>11.9739345756479</v>
+        <v>11.97397295751257</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>11.9739345756479</v>
+        <v>11.97397295751257</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3388,10 +3388,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.04162103831</v>
+        <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>4.762703152054635</v>
+        <v>4.762718418667848</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3400,22 +3400,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338337</v>
+        <v>0.1686684666338336</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0509488958594416</v>
+        <v>0.05094889585944165</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489642</v>
+        <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
         <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522553</v>
+        <v>0.002008604154522552</v>
       </c>
     </row>
     <row r="7">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.970993010039843</v>
+        <v>1.971709383837789</v>
       </c>
       <c r="C2" t="n">
-        <v>2.246992913563123</v>
+        <v>2.2477866516648</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8771692149729039</v>
+        <v>0.8771781709698575</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1952945135890053</v>
+        <v>0.1952249509327441</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>125.5329661863711</v>
+        <v>125.5381344323977</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>31.29757293664833</v>
+        <v>31.29800950641724</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.216240301220557</v>
+        <v>6.216251267099203</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.05098537833274</v>
+        <v>39.05293110973749</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26.88463653032342</v>
+        <v>26.88678469122222</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493770636457684</v>
+        <v>0.8493769403721865</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.210876274874328</v>
+        <v>9.210706532739875</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8310375702163524</v>
+        <v>0.8310379498738991</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.929807929624124</v>
+        <v>2.92978496644209</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.814037174176791</v>
+        <v>0.8140371150671456</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02566464351086521</v>
+        <v>0.02565491933330188</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03372008393260018</v>
+        <v>0.03371036390372849</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04039770231886166</v>
+        <v>0.04039573913767026</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04526576852394323</v>
+        <v>0.04526357319453437</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8924559029080306</v>
+        <v>0.8924558157186779</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38944.63986925903</v>
+        <v>38945.66456132753</v>
       </c>
       <c r="C2" t="n">
-        <v>39338.02006995861</v>
+        <v>39339.05511245205</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87454.42698004296</v>
+        <v>87454.76107384061</v>
       </c>
       <c r="C3" t="n">
-        <v>88337.80503034643</v>
+        <v>88338.14249882889</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32001.85108724995</v>
+        <v>32007.33089193404</v>
       </c>
       <c r="C4" t="n">
-        <v>32325.10210833328</v>
+        <v>32330.63726457984</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>445.4379984935546</v>
+        <v>445.4482442938238</v>
       </c>
       <c r="C5" t="n">
-        <v>449.9373722157117</v>
+        <v>449.947721508913</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28171.59932714263</v>
+        <v>28169.19712993583</v>
       </c>
       <c r="C6" t="n">
-        <v>28456.16093650771</v>
+        <v>28453.73447468266</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30523.35005439251</v>
+        <v>30520.80832088136</v>
       </c>
       <c r="C7" t="n">
-        <v>30831.6667216086</v>
+        <v>30829.09931402158</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.1717993171925</v>
+        <v>31.17161635857055</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>91.21240620601628</v>
+        <v>91.21270811282731</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.887969164271565</v>
+        <v>7.887769187079316</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34608.75986979958</v>
+        <v>34608.97265768449</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3073.266713605619</v>
+        <v>3073.236741871194</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22647.55756669997</v>
+        <v>22647.52831115466</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7875.75849383564</v>
+        <v>7875.783739196279</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5689.879046425117</v>
+        <v>5689.897285055546</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21121.03545241429</v>
+        <v>21121.10315486574</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37759.93970628067</v>
+        <v>37760.02092098875</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.757774756648383</v>
+        <v>0.7578059545599283</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>461.8282266255479</v>
+        <v>462.1676868472238</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>866.9887469949055</v>
+        <v>867.3727534242826</v>
       </c>
       <c r="E6" t="n">
         <v>523.99195134</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>303.6235482588451</v>
+        <v>308.3193899343105</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>691.3360934157398</v>
+        <v>696.4564882159131</v>
       </c>
       <c r="E7" t="n">
         <v>523.99195134</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.8751419195181</v>
+        <v>237.1276320066141</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>615.9047412237013</v>
+        <v>619.3973477192675</v>
       </c>
       <c r="E8" t="n">
         <v>523.99195134</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>232.9541266071405</v>
+        <v>236.2046706049501</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>614.9161525813763</v>
+        <v>618.4060122192411</v>
       </c>
       <c r="E9" t="n">
         <v>523.99195134</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173.5294170244763</v>
+        <v>175.6084990203433</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>551.5027517577738</v>
+        <v>553.709748843573</v>
       </c>
       <c r="E10" t="n">
         <v>523.99195134</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>105.6556361183784</v>
+        <v>106.5119340557659</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>479.8479271466391</v>
+        <v>480.7476380238078</v>
       </c>
       <c r="E11" t="n">
         <v>523.99195134</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>504.4818833113654</v>
+        <v>503.4452387154795</v>
       </c>
       <c r="C3" t="n">
-        <v>7.672021284275727</v>
+        <v>8.28827337092379</v>
       </c>
       <c r="D3" t="n">
-        <v>3414.427628163603</v>
+        <v>3404.599380546163</v>
       </c>
       <c r="E3" t="n">
-        <v>63.12136820552782</v>
+        <v>62.89244640210029</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295.377709649022</v>
+        <v>300.3249010145797</v>
       </c>
       <c r="C4" t="n">
-        <v>8.04247898125964</v>
+        <v>8.627283302320595</v>
       </c>
       <c r="D4" t="n">
-        <v>2758.050108430896</v>
+        <v>2749.011432768658</v>
       </c>
       <c r="E4" t="n">
-        <v>63.12136820552782</v>
+        <v>62.89244640210029</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>294.5136420301488</v>
+        <v>299.0062471262127</v>
       </c>
       <c r="C5" t="n">
-        <v>8.04247898125964</v>
+        <v>8.627283302320595</v>
       </c>
       <c r="D5" t="n">
-        <v>1314.498174490974</v>
+        <v>1339.264244742315</v>
       </c>
       <c r="E5" t="n">
-        <v>63.12136820552782</v>
+        <v>62.89244640210029</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163.4178288889001</v>
+        <v>165.4425655937767</v>
       </c>
       <c r="C6" t="n">
-        <v>8.04247898125964</v>
+        <v>8.627283302320595</v>
       </c>
       <c r="D6" t="n">
-        <v>694.5896322686375</v>
+        <v>703.6783595915018</v>
       </c>
       <c r="E6" t="n">
-        <v>63.12136820552782</v>
+        <v>62.89244640210029</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>162.0758875840753</v>
+        <v>163.9615832256166</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6515695378227063</v>
+        <v>0.6830750903894967</v>
       </c>
       <c r="D7" t="n">
-        <v>684.4990636121695</v>
+        <v>692.7098558579027</v>
       </c>
       <c r="E7" t="n">
-        <v>63.12136820552782</v>
+        <v>62.89244640210029</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.9876301243273</v>
+        <v>176.7096761600349</v>
       </c>
       <c r="C8" t="n">
-        <v>0.644693948079562</v>
+        <v>0.6763628694104062</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.42765102648</v>
+        <v>2793.248278100945</v>
       </c>
       <c r="E8" t="n">
-        <v>16.1639054044614</v>
+        <v>16.3063095053102</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>162.075887453346</v>
+        <v>163.9615830909526</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6515695378227063</v>
+        <v>0.6830750903894967</v>
       </c>
       <c r="D9" t="n">
-        <v>2759.702610269231</v>
+        <v>2761.716601463631</v>
       </c>
       <c r="E9" t="n">
-        <v>16.1639054044614</v>
+        <v>16.3063095053102</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.0758875840753</v>
+        <v>163.9615832256166</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6515695378227063</v>
+        <v>0.6830750903894967</v>
       </c>
       <c r="D10" t="n">
-        <v>692.6676148329849</v>
+        <v>695.0203157662745</v>
       </c>
       <c r="E10" t="n">
-        <v>79.28527360998922</v>
+        <v>79.19875590741049</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>162.0758875840753</v>
+        <v>163.9615832256166</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6515695378227063</v>
+        <v>0.6830750903894967</v>
       </c>
       <c r="D11" t="n">
-        <v>692.6676148329849</v>
+        <v>695.0203157662745</v>
       </c>
       <c r="E11" t="n">
-        <v>84.29641600150146</v>
+        <v>85.38390591838419</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4860,13 +4860,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6515695378227063</v>
+        <v>0.6830750903894967</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7107528043748</v>
+        <v>251.7372072342092</v>
       </c>
       <c r="E12" t="n">
-        <v>84.29654967298619</v>
+        <v>85.38347943723394</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.32725570847805</v>
+        <v>51.72023251380375</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>223.8411528951033</v>
+        <v>217.122583120371</v>
       </c>
       <c r="E13" t="n">
-        <v>73.40416710024144</v>
+        <v>79.19910105846293</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>53.32725570847805</v>
+        <v>51.72023251380375</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>223.8411528951033</v>
+        <v>217.122583120371</v>
       </c>
       <c r="E14" t="n">
-        <v>73.40416710024144</v>
+        <v>79.19910105846293</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>90.93940217759166</v>
+        <v>88.41246025279486</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07272325261999156</v>
+        <v>0.06605519804325133</v>
       </c>
       <c r="D15" t="n">
-        <v>380.9922108817312</v>
+        <v>370.3613104726001</v>
       </c>
       <c r="E15" t="n">
-        <v>56.77970916967747</v>
+        <v>57.07374532001934</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>60.87258916016935</v>
+        <v>60.38625205401092</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07272362338503294</v>
+        <v>0.0660551902026205</v>
       </c>
       <c r="D16" t="n">
-        <v>254.8766423850433</v>
+        <v>252.8355839071757</v>
       </c>
       <c r="E16" t="n">
-        <v>56.78022150420676</v>
+        <v>57.07409217285998</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>75.77593292238548</v>
+        <v>74.32806633525556</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>317.273831146028</v>
+        <v>311.2116137457151</v>
       </c>
       <c r="E19" t="n">
         <v>74.0152414976713</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>112.3097807027038</v>
+        <v>112.9042098085832</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1548680069995279</v>
+        <v>0.1579329963875593</v>
       </c>
       <c r="D20" t="n">
-        <v>2655.886346818094</v>
+        <v>2644.851939533057</v>
       </c>
       <c r="E20" t="n">
-        <v>20.11818479185366</v>
+        <v>22.95171300900434</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>110.7695302202136</v>
+        <v>111.3566498410378</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1471246066495515</v>
+        <v>0.1500363465681813</v>
       </c>
       <c r="D21" t="n">
-        <v>464.672151182457</v>
+        <v>467.1576717138614</v>
       </c>
       <c r="E21" t="n">
-        <v>20.11818479185366</v>
+        <v>22.95171300900434</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>88.64160113957628</v>
+        <v>86.26789210449424</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>371.1423839714059</v>
+        <v>361.2036642415174</v>
       </c>
       <c r="E22" t="n">
         <v>587.5581856834091</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>55.78170217178662</v>
+        <v>55.59931309490195</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>92.3038098469633</v>
+        <v>89.75520245764932</v>
       </c>
       <c r="C25" t="n">
-        <v>0.07655079223157006</v>
+        <v>0.06953178741394878</v>
       </c>
       <c r="D25" t="n">
-        <v>2562.339762430592</v>
+        <v>2538.70835056587</v>
       </c>
       <c r="E25" t="n">
-        <v>36.66170565208549</v>
+        <v>34.12203686192994</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>501.5651974330003</v>
+        <v>500.7822362784412</v>
       </c>
       <c r="C26" t="n">
-        <v>7.064921957518885</v>
+        <v>7.734180947494617</v>
       </c>
       <c r="D26" t="n">
-        <v>3414.427628163603</v>
+        <v>3404.599380546163</v>
       </c>
       <c r="E26" t="n">
-        <v>57.23986139163505</v>
+        <v>62.89244640210029</v>
       </c>
       <c r="F26" t="n">
-        <v>6.799846636162794</v>
+        <v>6.747812785749008</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>188.9615355302213</v>
+        <v>185.4311551482377</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4764025058446927</v>
+        <v>0.5093534613179647</v>
       </c>
       <c r="D27" t="n">
-        <v>2833.376592756039</v>
+        <v>2823.784654279812</v>
       </c>
       <c r="E27" t="n">
-        <v>57.23986139163505</v>
+        <v>62.89244640210029</v>
       </c>
       <c r="F27" t="n">
-        <v>7.034683369426562</v>
+        <v>6.983901290614559</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172.1260441563471</v>
+        <v>173.9685161349643</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5507577450069314</v>
+        <v>0.5850246118325398</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.42765102648</v>
+        <v>2793.248278100945</v>
       </c>
       <c r="E28" t="n">
-        <v>16.1639054044614</v>
+        <v>16.3063095053102</v>
       </c>
       <c r="F28" t="n">
-        <v>6.877487497933112</v>
+        <v>6.854829643264948</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>184.6947558575364</v>
+        <v>182.5657683440921</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4764025058446927</v>
+        <v>0.5093534613179647</v>
       </c>
       <c r="D29" t="n">
-        <v>2824.139209505431</v>
+        <v>2817.497489848526</v>
       </c>
       <c r="E29" t="n">
-        <v>73.40376679609645</v>
+        <v>79.19875590741049</v>
       </c>
       <c r="F29" t="n">
-        <v>7.014600912462634</v>
+        <v>6.97014820828598</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>112.3101959902077</v>
+        <v>112.9029771365877</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1548661198988633</v>
+        <v>0.1579324143984257</v>
       </c>
       <c r="D30" t="n">
-        <v>2655.887859792821</v>
+        <v>2644.847778624187</v>
       </c>
       <c r="E30" t="n">
-        <v>73.40376679609645</v>
+        <v>79.19875590741049</v>
       </c>
       <c r="F30" t="n">
-        <v>7.111995072556777</v>
+        <v>7.074691588484399</v>
       </c>
       <c r="G30" t="n">
-        <v>98.26091486628617</v>
+        <v>97.72264596077747</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>92.30415692455273</v>
+        <v>89.75362594056338</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07655178679589182</v>
+        <v>0.06952761782347516</v>
       </c>
       <c r="D31" t="n">
-        <v>2562.341073243525</v>
+        <v>2538.702504415966</v>
       </c>
       <c r="E31" t="n">
-        <v>53.28576327850446</v>
+        <v>56.24704744932108</v>
       </c>
       <c r="F31" t="n">
-        <v>7.172618116448088</v>
+        <v>7.149443743445234</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56653049132066</v>
+        <v>94.72538686568546</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>69.71967828803457</v>
+        <v>76.44691524091053</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03082460349925325</v>
+        <v>0.04099215306550963</v>
       </c>
       <c r="D32" t="n">
-        <v>2562.341073243525</v>
+        <v>2538.702504415966</v>
       </c>
       <c r="E32" t="n">
-        <v>16.62394559603467</v>
+        <v>22.12500888560295</v>
       </c>
       <c r="F32" t="n">
-        <v>7.573614355083224</v>
+        <v>7.379329701041229</v>
       </c>
       <c r="G32" t="n">
-        <v>97.28863581588934</v>
+        <v>95.75541614921958</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25.9355708381276</v>
+        <v>27.64795920816857</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003351087223007898</v>
+        <v>0.003706133832463758</v>
       </c>
       <c r="D33" t="n">
-        <v>2419.000932273753</v>
+        <v>2340.548059130589</v>
       </c>
       <c r="E33" t="n">
-        <v>16.62394559603467</v>
+        <v>22.12500888560295</v>
       </c>
       <c r="F33" t="n">
-        <v>8.104735181827328</v>
+        <v>7.800012494580955</v>
       </c>
       <c r="G33" t="n">
-        <v>94.70380255914368</v>
+        <v>91.34641651395827</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25.9355708381276</v>
+        <v>27.64795920816857</v>
       </c>
       <c r="C34" t="n">
-        <v>0.003351087223007898</v>
+        <v>0.003706133832463758</v>
       </c>
       <c r="D34" t="n">
-        <v>108.7413972124093</v>
+        <v>115.9011120282959</v>
       </c>
       <c r="E34" t="n">
-        <v>16.62394559603467</v>
+        <v>22.12500888560295</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>27.95908520796996</v>
+        <v>29.67248027927377</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>117.837318994768</v>
+        <v>124.9966495573859</v>
       </c>
       <c r="E35" t="n">
-        <v>16.62394559603467</v>
+        <v>22.12500888560295</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>500.7352654531902</v>
+        <v>500.7398071047627</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3469.863285418121</v>
+        <v>3469.873305978826</v>
       </c>
       <c r="E40" t="n">
-        <v>10.16418797687332</v>
+        <v>10.16422055768332</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>515.7352654531902</v>
+        <v>515.7398071047627</v>
       </c>
       <c r="C42" t="n">
-        <v>6.315005140790809</v>
+        <v>6.314974784481755</v>
       </c>
       <c r="D42" t="n">
-        <v>3456.996368780779</v>
+        <v>3457.007294956141</v>
       </c>
       <c r="E42" t="n">
-        <v>11.80134845120934</v>
+        <v>11.80136532308675</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
